--- a/Covid_19_Dataset_and_References/References/108.xlsx
+++ b/Covid_19_Dataset_and_References/References/108.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="127">
   <si>
     <t>Doi</t>
   </si>
@@ -456,6 +456,286 @@
   </si>
   <si>
     <t>[Guillermo F%López-Sánchez%gfls@um.es%1,   Rubén%López-Bueno%rlopezbu@unizar.es%1,   Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,   Roksana%Zauder%NULL%1,   Maria%Skalska%NULL%1,   Joanna%Jastrzębska%NULL%1,   Zbigniew%Jastrzębski%NULL%1,   Felipe B%Schuch%NULL%1,   Igor%Grabovac%NULL%0,   Mark A%Tully%NULL%1,   Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Anxiety, depression and reduction of quality of life (QoL) are common in people with multiple sclerosis (pwMS).
+ Fear of getting sick from COVID-19, government’s lockdown and the imposed social distancing might have had an impact on psychological distress and QoL.
+Objectives
+id="Par2"&gt;The aim of our study was to investigate anxiety, depression and QoL changes in pwMS during SARS-CoV-2 outbreak and lockdown in Italy.
+Methods
+id="Par3"&gt;67 pwMS with a previous (less than 6 months) neuropsychological evaluation before SARS-CoV-2 outbreak (T0) were re-evaluated at the time of the outbreak and lockdown in Italy (T1).
+ They underwent a clinical and neurological evaluation and completed the State-Trait Anxiety Inventory (STAI-Y1), the Beck Depression Inventory second edition (BDI-II), and Multiple Sclerosis Quality of Life-54 (MsQoL-54) at T0 and T1. Benjamini–Hochberg procedure was applied to control the false discovery rate.
+Results
+id="Par4"&gt;BDI-II and STAI-Y1 scores did not change between T0 and T1. At T1, MsQoL-54 scores were higher on the satisfaction with sexual life and the social function subscales, and lower on the limitation due to emotional problems subscale.
+Conclusions
+id="Par5"&gt;This is the first study that evaluated mood and QoL levels before and during the lockdown due to COVID-19 pandemic in pwMS.
+ No worsening of anxiety and depression levels was found.
+ Contrariwise some improvements were noted on QoL, the most reliable regarding the sexual satisfaction and the social function.
+</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,    Manuela%Altieri%NULL%1,    Alvino%Bisecco%NULL%1,    Alessandro%d’Ambrosio%NULL%1,    Renato%Docimo%NULL%1,    Daniela%Buonanno%NULL%1,    Federica%Matrone%NULL%1,    Federica%Giuliano%NULL%1,    Gioacchino%Tedeschi%NULL%1,    Gabriella%Santangelo%NULL%1,    Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+To report the understanding and decision-making of neuroimmunologists and their treatment of patients with multiple sclerosis (MS) during the early stages of the SARS-CoV-2 (COVID-19) outbreak.
+Methods
+id="Par2"&gt;A survey instrument was designed and distributed online to neurologists in April 2020.
+Results
+id="Par3"&gt;There were 250 respondents (response rate 21.8%).
+ 243 saw &amp;gt;  = 10 MS patients in the prior 6 months (average 197 patients) and were analyzed further (92% USA, 8% Canada; average practice duration 16 years; 5% rural, 17% small city, 38% large city, 40% highly urbanized).
+ Patient volume dropped an average of 79% (53–11 per month).
+ 23% were aware of patients self-discontinuing a DMT due to fear of COVID-19 with 43% estimated to be doing so against medical advice.
+ 65% of respondents reported deferring &amp;gt;  = 1 doses of a DMT (49%), changing the dosing interval (34%), changing to home infusions (20%), switching a DMT (9%), and discontinuing DMTs altogether (8%) as a result of COVID-19. Changes in DMTs were most common with the high-efficacy therapies alemtuzumab, cladribine, ocrelizumab, rituximab, and natalizumab.
+ 35% made no changes to DMT prescribing.
+ 98% expressed worry about their patients contracting COVID-19 and 78% expressed the same degree of worry about themselves.
+  &amp;gt; 50% believed high-efficacy DMTs prolong viral shedding of SARS-CoV-2 and that B-cell therapies might prevent protective vaccine effects.
+ Accelerated pace of telemedicine and practice model changes were identified as major shifts in practice.
+Conclusions
+id="Par4"&gt;Reported prescribing changes and practice disruptions due to COVID-19 may be temporary but could have a lasting influence on MS care.
+Electronic supplementary material
+The online version of this article (10.1007/s00415-020-10045-9) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,    Shawheen%Rezaei%NULL%2,    Shawheen%Rezaei%NULL%0,    Nicholas%Alakel%NULL%1,    Brittany%Gazdag%NULL%1,    Aditya Ravi%Kumar%NULL%1,    Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Quarantine was the measure taken by governments to control the rapid spread of COVID-19. This restriction resulted in a sudden change in people’s lifestyle, leading to an increase in sedentary behavior and a related decrease in the practice of physical activity (PA).
+ However, in neuromuscular diseases patients need to perform regular PA to counteract the negative consequences of the disease.
+ Hence, the aim of this study was to estimate the levels of PA, measured as energy expenditure (MET–minute/week), among patients with neuromuscular disease (NMD) before and during the last week of quarantine.
+Methods
+id="Par2"&gt;A total of 268 Italian subjects, living in Sicily, completed an adapted version of the IPAQ-SF.
+ Participants comprised 149 NMD, enrolled at the Neuromuscular Clinic of Palermo and 119 healthy subjects (control group).
+ The SF-12 questionnaire was also administered to NMD.
+ The Mann–Whitney U and the Kruskal–Wallis rank-sum tests were used for statistical analyses.
+Results
+id="Par3"&gt;We observed a significant decrease of the total weekly PA level during COVID-19 quarantine in both patients and controls.
+ Moreover, a significant difference in the total weekly PA level was found depending on the presence of neuromuscular disease, impaired walking, gender and BMI.
+ Finally, we found a correlation between SF-12 scores and the entity of the reduction of PA level during quarantine, thus confirming a relevant association with the quality of life in NMD.
+Conclusion
+id="Par4"&gt;Our study confirmed that COVID-19 quarantine has affected the practice of PA among both NMD and healthy controls.
+</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,    Giuseppe%Battaglia%NULL%2,    Giuseppe%Battaglia%NULL%0,    Valerio%Giustino%NULL%1,    Andrea%Gagliardo%NULL%1,    Michele%D’Aleo%NULL%1,    Ottavio%Giannini%NULL%1,    Antonio%Palma%NULL%1,    Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Anxiety, depression and reduction of quality of life (QoL) are common in people with multiple sclerosis (pwMS).
+ Fear of getting sick from COVID-19, government’s lockdown and the imposed social distancing might have had an impact on psychological distress and QoL.
+Objectives
+The aim of our study was to investigate anxiety, depression and QoL changes in pwMS during SARS-CoV-2 outbreak and lockdown in Italy.
+Methods
+id="Par3"&gt;67 pwMS with a previous (less than 6 months) neuropsychological evaluation before SARS-CoV-2 outbreak (T0) were re-evaluated at the time of the outbreak and lockdown in Italy (T1).
+ They underwent a clinical and neurological evaluation and completed the State-Trait Anxiety Inventory (STAI-Y1), the Beck Depression Inventory second edition (BDI-II), and Multiple Sclerosis Quality of Life-54 (MsQoL-54) at T0 and T1. Benjamini–Hochberg procedure was applied to control the false discovery rate.
+Results
+id="Par4"&gt;BDI-II and STAI-Y1 scores did not change between T0 and T1. At T1, MsQoL-54 scores were higher on the satisfaction with sexual life and the social function subscales, and lower on the limitation due to emotional problems subscale.
+Conclusions
+id="Par5"&gt;This is the first study that evaluated mood and QoL levels before and during the lockdown due to COVID-19 pandemic in pwMS.
+ No worsening of anxiety and depression levels was found.
+ Contrariwise some improvements were noted on QoL, the most reliable regarding the sexual satisfaction and the social function.
+</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,     Manuela%Altieri%NULL%1,     Alvino%Bisecco%NULL%1,     Alessandro%d’Ambrosio%NULL%1,     Renato%Docimo%NULL%1,     Daniela%Buonanno%NULL%1,     Federica%Matrone%NULL%1,     Federica%Giuliano%NULL%1,     Gioacchino%Tedeschi%NULL%1,     Gabriella%Santangelo%NULL%1,     Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+To report the understanding and decision-making of neuroimmunologists and their treatment of patients with multiple sclerosis (MS) during the early stages of the SARS-CoV-2 (COVID-19) outbreak.
+Methods
+A survey instrument was designed and distributed online to neurologists in April 2020.
+Results
+id="Par3"&gt;There were 250 respondents (response rate 21.8%).
+ 243 saw &amp;gt;  = 10 MS patients in the prior 6 months (average 197 patients) and were analyzed further (92% USA, 8% Canada; average practice duration 16 years; 5% rural, 17% small city, 38% large city, 40% highly urbanized).
+ Patient volume dropped an average of 79% (53–11 per month).
+ 23% were aware of patients self-discontinuing a DMT due to fear of COVID-19 with 43% estimated to be doing so against medical advice.
+ 65% of respondents reported deferring &amp;gt;  = 1 doses of a DMT (49%), changing the dosing interval (34%), changing to home infusions (20%), switching a DMT (9%), and discontinuing DMTs altogether (8%) as a result of COVID-19. Changes in DMTs were most common with the high-efficacy therapies alemtuzumab, cladribine, ocrelizumab, rituximab, and natalizumab.
+ 35% made no changes to DMT prescribing.
+ 98% expressed worry about their patients contracting COVID-19 and 78% expressed the same degree of worry about themselves.
+  &amp;gt; 50% believed high-efficacy DMTs prolong viral shedding of SARS-CoV-2 and that B-cell therapies might prevent protective vaccine effects.
+ Accelerated pace of telemedicine and practice model changes were identified as major shifts in practice.
+Conclusions
+id="Par4"&gt;Reported prescribing changes and practice disruptions due to COVID-19 may be temporary but could have a lasting influence on MS care.
+Electronic supplementary material
+The online version of this article (10.1007/s00415-020-10045-9) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,     Shawheen%Rezaei%NULL%2,     Shawheen%Rezaei%NULL%0,     Nicholas%Alakel%NULL%1,     Brittany%Gazdag%NULL%1,     Aditya Ravi%Kumar%NULL%1,     Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Quarantine was the measure taken by governments to control the rapid spread of COVID-19. This restriction resulted in a sudden change in people’s lifestyle, leading to an increase in sedentary behavior and a related decrease in the practice of physical activity (PA).
+ However, in neuromuscular diseases patients need to perform regular PA to counteract the negative consequences of the disease.
+ Hence, the aim of this study was to estimate the levels of PA, measured as energy expenditure (MET–minute/week), among patients with neuromuscular disease (NMD) before and during the last week of quarantine.
+Methods
+A total of 268 Italian subjects, living in Sicily, completed an adapted version of the IPAQ-SF.
+ Participants comprised 149 NMD, enrolled at the Neuromuscular Clinic of Palermo and 119 healthy subjects (control group).
+ The SF-12 questionnaire was also administered to NMD.
+ The Mann–Whitney U and the Kruskal–Wallis rank-sum tests were used for statistical analyses.
+Results
+id="Par3"&gt;We observed a significant decrease of the total weekly PA level during COVID-19 quarantine in both patients and controls.
+ Moreover, a significant difference in the total weekly PA level was found depending on the presence of neuromuscular disease, impaired walking, gender and BMI.
+ Finally, we found a correlation between SF-12 scores and the entity of the reduction of PA level during quarantine, thus confirming a relevant association with the quality of life in NMD.
+Conclusion
+id="Par4"&gt;Our study confirmed that COVID-19 quarantine has affected the practice of PA among both NMD and healthy controls.
+</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,     Giuseppe%Battaglia%NULL%2,     Giuseppe%Battaglia%NULL%0,     Valerio%Giustino%NULL%1,     Andrea%Gagliardo%NULL%1,     Michele%D’Aleo%NULL%1,     Ottavio%Giannini%NULL%1,     Antonio%Palma%NULL%1,     Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Anxiety, depression and reduction of quality of life (QoL) are common in people with multiple sclerosis (pwMS).
+ Fear of getting sick from COVID-19, government’s lockdown and the imposed social distancing might have had an impact on psychological distress and QoL.
+Objectives
+The aim of our study was to investigate anxiety, depression and QoL changes in pwMS during SARS-CoV-2 outbreak and lockdown in Italy.
+Methods
+67 pwMS with a previous (less than 6 months) neuropsychological evaluation before SARS-CoV-2 outbreak (T0) were re-evaluated at the time of the outbreak and lockdown in Italy (T1).
+ They underwent a clinical and neurological evaluation and completed the State-Trait Anxiety Inventory (STAI-Y1), the Beck Depression Inventory second edition (BDI-II), and Multiple Sclerosis Quality of Life-54 (MsQoL-54) at T0 and T1. Benjamini–Hochberg procedure was applied to control the false discovery rate.
+Results
+id="Par4"&gt;BDI-II and STAI-Y1 scores did not change between T0 and T1. At T1, MsQoL-54 scores were higher on the satisfaction with sexual life and the social function subscales, and lower on the limitation due to emotional problems subscale.
+Conclusions
+id="Par5"&gt;This is the first study that evaluated mood and QoL levels before and during the lockdown due to COVID-19 pandemic in pwMS.
+ No worsening of anxiety and depression levels was found.
+ Contrariwise some improvements were noted on QoL, the most reliable regarding the sexual satisfaction and the social function.
+</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,      Manuela%Altieri%NULL%1,      Alvino%Bisecco%NULL%1,      Alessandro%d’Ambrosio%NULL%1,      Renato%Docimo%NULL%1,      Daniela%Buonanno%NULL%1,      Federica%Matrone%NULL%1,      Federica%Giuliano%NULL%1,      Gioacchino%Tedeschi%NULL%1,      Gabriella%Santangelo%NULL%1,      Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+To report the understanding and decision-making of neuroimmunologists and their treatment of patients with multiple sclerosis (MS) during the early stages of the SARS-CoV-2 (COVID-19) outbreak.
+Methods
+A survey instrument was designed and distributed online to neurologists in April 2020.
+Results
+There were 250 respondents (response rate 21.8%).
+ 243 saw &amp;gt;  = 10 MS patients in the prior 6 months (average 197 patients) and were analyzed further (92% USA, 8% Canada; average practice duration 16 years; 5% rural, 17% small city, 38% large city, 40% highly urbanized).
+ Patient volume dropped an average of 79% (53–11 per month).
+ 23% were aware of patients self-discontinuing a DMT due to fear of COVID-19 with 43% estimated to be doing so against medical advice.
+ 65% of respondents reported deferring &amp;gt;  = 1 doses of a DMT (49%), changing the dosing interval (34%), changing to home infusions (20%), switching a DMT (9%), and discontinuing DMTs altogether (8%) as a result of COVID-19. Changes in DMTs were most common with the high-efficacy therapies alemtuzumab, cladribine, ocrelizumab, rituximab, and natalizumab.
+ 35% made no changes to DMT prescribing.
+ 98% expressed worry about their patients contracting COVID-19 and 78% expressed the same degree of worry about themselves.
+  &amp;gt; 50% believed high-efficacy DMTs prolong viral shedding of SARS-CoV-2 and that B-cell therapies might prevent protective vaccine effects.
+ Accelerated pace of telemedicine and practice model changes were identified as major shifts in practice.
+Conclusions
+id="Par4"&gt;Reported prescribing changes and practice disruptions due to COVID-19 may be temporary but could have a lasting influence on MS care.
+Electronic supplementary material
+The online version of this article (10.1007/s00415-020-10045-9) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,      Shawheen%Rezaei%NULL%2,      Shawheen%Rezaei%NULL%0,      Nicholas%Alakel%NULL%1,      Brittany%Gazdag%NULL%1,      Aditya Ravi%Kumar%NULL%1,      Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Quarantine was the measure taken by governments to control the rapid spread of COVID-19. This restriction resulted in a sudden change in people’s lifestyle, leading to an increase in sedentary behavior and a related decrease in the practice of physical activity (PA).
+ However, in neuromuscular diseases patients need to perform regular PA to counteract the negative consequences of the disease.
+ Hence, the aim of this study was to estimate the levels of PA, measured as energy expenditure (MET–minute/week), among patients with neuromuscular disease (NMD) before and during the last week of quarantine.
+Methods
+A total of 268 Italian subjects, living in Sicily, completed an adapted version of the IPAQ-SF.
+ Participants comprised 149 NMD, enrolled at the Neuromuscular Clinic of Palermo and 119 healthy subjects (control group).
+ The SF-12 questionnaire was also administered to NMD.
+ The Mann–Whitney U and the Kruskal–Wallis rank-sum tests were used for statistical analyses.
+Results
+We observed a significant decrease of the total weekly PA level during COVID-19 quarantine in both patients and controls.
+ Moreover, a significant difference in the total weekly PA level was found depending on the presence of neuromuscular disease, impaired walking, gender and BMI.
+ Finally, we found a correlation between SF-12 scores and the entity of the reduction of PA level during quarantine, thus confirming a relevant association with the quality of life in NMD.
+Conclusion
+id="Par4"&gt;Our study confirmed that COVID-19 quarantine has affected the practice of PA among both NMD and healthy controls.
+</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,      Giuseppe%Battaglia%NULL%2,      Giuseppe%Battaglia%NULL%0,      Valerio%Giustino%NULL%1,      Andrea%Gagliardo%NULL%1,      Michele%D’Aleo%NULL%1,      Ottavio%Giannini%NULL%1,      Antonio%Palma%NULL%1,      Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Anxiety, depression and reduction of quality of life (QoL) are common in people with multiple sclerosis (pwMS).
+ Fear of getting sick from COVID-19, government’s lockdown and the imposed social distancing might have had an impact on psychological distress and QoL.
+Objectives
+The aim of our study was to investigate anxiety, depression and QoL changes in pwMS during SARS-CoV-2 outbreak and lockdown in Italy.
+Methods
+67 pwMS with a previous (less than 6 months) neuropsychological evaluation before SARS-CoV-2 outbreak (T0) were re-evaluated at the time of the outbreak and lockdown in Italy (T1).
+ They underwent a clinical and neurological evaluation and completed the State-Trait Anxiety Inventory (STAI-Y1), the Beck Depression Inventory second edition (BDI-II), and Multiple Sclerosis Quality of Life-54 (MsQoL-54) at T0 and T1. Benjamini–Hochberg procedure was applied to control the false discovery rate.
+Results
+BDI-II and STAI-Y1 scores did not change between T0 and T1. At T1, MsQoL-54 scores were higher on the satisfaction with sexual life and the social function subscales, and lower on the limitation due to emotional problems subscale.
+Conclusions
+id="Par5"&gt;This is the first study that evaluated mood and QoL levels before and during the lockdown due to COVID-19 pandemic in pwMS.
+ No worsening of anxiety and depression levels was found.
+ Contrariwise some improvements were noted on QoL, the most reliable regarding the sexual satisfaction and the social function.
+</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,       Manuela%Altieri%NULL%1,       Alvino%Bisecco%NULL%1,       Alessandro%d’Ambrosio%NULL%1,       Renato%Docimo%NULL%1,       Daniela%Buonanno%NULL%1,       Federica%Matrone%NULL%1,       Federica%Giuliano%NULL%1,       Gioacchino%Tedeschi%NULL%1,       Gabriella%Santangelo%NULL%1,       Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+To report the understanding and decision-making of neuroimmunologists and their treatment of patients with multiple sclerosis (MS) during the early stages of the SARS-CoV-2 (COVID-19) outbreak.
+Methods
+A survey instrument was designed and distributed online to neurologists in April 2020.
+Results
+There were 250 respondents (response rate 21.8%).
+ 243 saw &amp;gt;  = 10 MS patients in the prior 6 months (average 197 patients) and were analyzed further (92% USA, 8% Canada; average practice duration 16 years; 5% rural, 17% small city, 38% large city, 40% highly urbanized).
+ Patient volume dropped an average of 79% (53–11 per month).
+ 23% were aware of patients self-discontinuing a DMT due to fear of COVID-19 with 43% estimated to be doing so against medical advice.
+ 65% of respondents reported deferring &amp;gt;  = 1 doses of a DMT (49%), changing the dosing interval (34%), changing to home infusions (20%), switching a DMT (9%), and discontinuing DMTs altogether (8%) as a result of COVID-19. Changes in DMTs were most common with the high-efficacy therapies alemtuzumab, cladribine, ocrelizumab, rituximab, and natalizumab.
+ 35% made no changes to DMT prescribing.
+ 98% expressed worry about their patients contracting COVID-19 and 78% expressed the same degree of worry about themselves.
+  &amp;gt; 50% believed high-efficacy DMTs prolong viral shedding of SARS-CoV-2 and that B-cell therapies might prevent protective vaccine effects.
+ Accelerated pace of telemedicine and practice model changes were identified as major shifts in practice.
+Conclusions
+Reported prescribing changes and practice disruptions due to COVID-19 may be temporary but could have a lasting influence on MS care.
+Electronic supplementary material
+The online version of this article (10.1007/s00415-020-10045-9) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,       Shawheen%Rezaei%NULL%2,       Shawheen%Rezaei%NULL%0,       Nicholas%Alakel%NULL%1,       Brittany%Gazdag%NULL%1,       Aditya Ravi%Kumar%NULL%1,       Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Quarantine was the measure taken by governments to control the rapid spread of COVID-19. This restriction resulted in a sudden change in people’s lifestyle, leading to an increase in sedentary behavior and a related decrease in the practice of physical activity (PA).
+ However, in neuromuscular diseases patients need to perform regular PA to counteract the negative consequences of the disease.
+ Hence, the aim of this study was to estimate the levels of PA, measured as energy expenditure (MET–minute/week), among patients with neuromuscular disease (NMD) before and during the last week of quarantine.
+Methods
+A total of 268 Italian subjects, living in Sicily, completed an adapted version of the IPAQ-SF.
+ Participants comprised 149 NMD, enrolled at the Neuromuscular Clinic of Palermo and 119 healthy subjects (control group).
+ The SF-12 questionnaire was also administered to NMD.
+ The Mann–Whitney U and the Kruskal–Wallis rank-sum tests were used for statistical analyses.
+Results
+We observed a significant decrease of the total weekly PA level during COVID-19 quarantine in both patients and controls.
+ Moreover, a significant difference in the total weekly PA level was found depending on the presence of neuromuscular disease, impaired walking, gender and BMI.
+ Finally, we found a correlation between SF-12 scores and the entity of the reduction of PA level during quarantine, thus confirming a relevant association with the quality of life in NMD.
+Conclusion
+Our study confirmed that COVID-19 quarantine has affected the practice of PA among both NMD and healthy controls.
+</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,       Giuseppe%Battaglia%NULL%2,       Giuseppe%Battaglia%NULL%0,       Valerio%Giustino%NULL%1,       Andrea%Gagliardo%NULL%1,       Michele%D’Aleo%NULL%1,       Ottavio%Giannini%NULL%1,       Antonio%Palma%NULL%1,       Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Anxiety, depression and reduction of quality of life (QoL) are common in people with multiple sclerosis (pwMS).
+ Fear of getting sick from COVID-19, government’s lockdown and the imposed social distancing might have had an impact on psychological distress and QoL.
+Objectives
+The aim of our study was to investigate anxiety, depression and QoL changes in pwMS during SARS-CoV-2 outbreak and lockdown in Italy.
+Methods
+67 pwMS with a previous (less than 6 months) neuropsychological evaluation before SARS-CoV-2 outbreak (T0) were re-evaluated at the time of the outbreak and lockdown in Italy (T1).
+ They underwent a clinical and neurological evaluation and completed the State-Trait Anxiety Inventory (STAI-Y1), the Beck Depression Inventory second edition (BDI-II), and Multiple Sclerosis Quality of Life-54 (MsQoL-54) at T0 and T1. Benjamini–Hochberg procedure was applied to control the false discovery rate.
+Results
+BDI-II and STAI-Y1 scores did not change between T0 and T1. At T1, MsQoL-54 scores were higher on the satisfaction with sexual life and the social function subscales, and lower on the limitation due to emotional problems subscale.
+Conclusions
+This is the first study that evaluated mood and QoL levels before and during the lockdown due to COVID-19 pandemic in pwMS.
+ No worsening of anxiety and depression levels was found.
+ Contrariwise some improvements were noted on QoL, the most reliable regarding the sexual satisfaction and the social function.
+</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,        Manuela%Altieri%NULL%1,        Alvino%Bisecco%NULL%1,        Alessandro%d’Ambrosio%NULL%1,        Renato%Docimo%NULL%1,        Daniela%Buonanno%NULL%1,        Federica%Matrone%NULL%1,        Federica%Giuliano%NULL%1,        Gioacchino%Tedeschi%NULL%1,        Gabriella%Santangelo%NULL%1,        Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
   </si>
 </sst>
 </file>
@@ -901,10 +1181,10 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -953,10 +1233,10 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1083,10 +1363,10 @@
         <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>

--- a/Covid_19_Dataset_and_References/References/108.xlsx
+++ b/Covid_19_Dataset_and_References/References/108.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="101">
   <si>
     <t>Doi</t>
   </si>
@@ -456,286 +456,6 @@
   </si>
   <si>
     <t>[Guillermo F%López-Sánchez%gfls@um.es%1,   Rubén%López-Bueno%rlopezbu@unizar.es%1,   Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,   Roksana%Zauder%NULL%1,   Maria%Skalska%NULL%1,   Joanna%Jastrzębska%NULL%1,   Zbigniew%Jastrzębski%NULL%1,   Felipe B%Schuch%NULL%1,   Igor%Grabovac%NULL%0,   Mark A%Tully%NULL%1,   Lee%Smith%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Anxiety, depression and reduction of quality of life (QoL) are common in people with multiple sclerosis (pwMS).
- Fear of getting sick from COVID-19, government’s lockdown and the imposed social distancing might have had an impact on psychological distress and QoL.
-Objectives
-id="Par2"&gt;The aim of our study was to investigate anxiety, depression and QoL changes in pwMS during SARS-CoV-2 outbreak and lockdown in Italy.
-Methods
-id="Par3"&gt;67 pwMS with a previous (less than 6 months) neuropsychological evaluation before SARS-CoV-2 outbreak (T0) were re-evaluated at the time of the outbreak and lockdown in Italy (T1).
- They underwent a clinical and neurological evaluation and completed the State-Trait Anxiety Inventory (STAI-Y1), the Beck Depression Inventory second edition (BDI-II), and Multiple Sclerosis Quality of Life-54 (MsQoL-54) at T0 and T1. Benjamini–Hochberg procedure was applied to control the false discovery rate.
-Results
-id="Par4"&gt;BDI-II and STAI-Y1 scores did not change between T0 and T1. At T1, MsQoL-54 scores were higher on the satisfaction with sexual life and the social function subscales, and lower on the limitation due to emotional problems subscale.
-Conclusions
-id="Par5"&gt;This is the first study that evaluated mood and QoL levels before and during the lockdown due to COVID-19 pandemic in pwMS.
- No worsening of anxiety and depression levels was found.
- Contrariwise some improvements were noted on QoL, the most reliable regarding the sexual satisfaction and the social function.
-</t>
-  </si>
-  <si>
-    <t>[Rocco%Capuano%NULL%1,    Manuela%Altieri%NULL%1,    Alvino%Bisecco%NULL%1,    Alessandro%d’Ambrosio%NULL%1,    Renato%Docimo%NULL%1,    Daniela%Buonanno%NULL%1,    Federica%Matrone%NULL%1,    Federica%Giuliano%NULL%1,    Gioacchino%Tedeschi%NULL%1,    Gabriella%Santangelo%NULL%1,    Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective
-To report the understanding and decision-making of neuroimmunologists and their treatment of patients with multiple sclerosis (MS) during the early stages of the SARS-CoV-2 (COVID-19) outbreak.
-Methods
-id="Par2"&gt;A survey instrument was designed and distributed online to neurologists in April 2020.
-Results
-id="Par3"&gt;There were 250 respondents (response rate 21.8%).
- 243 saw &amp;gt;  = 10 MS patients in the prior 6 months (average 197 patients) and were analyzed further (92% USA, 8% Canada; average practice duration 16 years; 5% rural, 17% small city, 38% large city, 40% highly urbanized).
- Patient volume dropped an average of 79% (53–11 per month).
- 23% were aware of patients self-discontinuing a DMT due to fear of COVID-19 with 43% estimated to be doing so against medical advice.
- 65% of respondents reported deferring &amp;gt;  = 1 doses of a DMT (49%), changing the dosing interval (34%), changing to home infusions (20%), switching a DMT (9%), and discontinuing DMTs altogether (8%) as a result of COVID-19. Changes in DMTs were most common with the high-efficacy therapies alemtuzumab, cladribine, ocrelizumab, rituximab, and natalizumab.
- 35% made no changes to DMT prescribing.
- 98% expressed worry about their patients contracting COVID-19 and 78% expressed the same degree of worry about themselves.
-  &amp;gt; 50% believed high-efficacy DMTs prolong viral shedding of SARS-CoV-2 and that B-cell therapies might prevent protective vaccine effects.
- Accelerated pace of telemedicine and practice model changes were identified as major shifts in practice.
-Conclusions
-id="Par4"&gt;Reported prescribing changes and practice disruptions due to COVID-19 may be temporary but could have a lasting influence on MS care.
-Electronic supplementary material
-The online version of this article (10.1007/s00415-020-10045-9) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,    Shawheen%Rezaei%NULL%2,    Shawheen%Rezaei%NULL%0,    Nicholas%Alakel%NULL%1,    Brittany%Gazdag%NULL%1,    Aditya Ravi%Kumar%NULL%1,    Andre%Vogel%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Quarantine was the measure taken by governments to control the rapid spread of COVID-19. This restriction resulted in a sudden change in people’s lifestyle, leading to an increase in sedentary behavior and a related decrease in the practice of physical activity (PA).
- However, in neuromuscular diseases patients need to perform regular PA to counteract the negative consequences of the disease.
- Hence, the aim of this study was to estimate the levels of PA, measured as energy expenditure (MET–minute/week), among patients with neuromuscular disease (NMD) before and during the last week of quarantine.
-Methods
-id="Par2"&gt;A total of 268 Italian subjects, living in Sicily, completed an adapted version of the IPAQ-SF.
- Participants comprised 149 NMD, enrolled at the Neuromuscular Clinic of Palermo and 119 healthy subjects (control group).
- The SF-12 questionnaire was also administered to NMD.
- The Mann–Whitney U and the Kruskal–Wallis rank-sum tests were used for statistical analyses.
-Results
-id="Par3"&gt;We observed a significant decrease of the total weekly PA level during COVID-19 quarantine in both patients and controls.
- Moreover, a significant difference in the total weekly PA level was found depending on the presence of neuromuscular disease, impaired walking, gender and BMI.
- Finally, we found a correlation between SF-12 scores and the entity of the reduction of PA level during quarantine, thus confirming a relevant association with the quality of life in NMD.
-Conclusion
-id="Par4"&gt;Our study confirmed that COVID-19 quarantine has affected the practice of PA among both NMD and healthy controls.
-</t>
-  </si>
-  <si>
-    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,    Giuseppe%Battaglia%NULL%2,    Giuseppe%Battaglia%NULL%0,    Valerio%Giustino%NULL%1,    Andrea%Gagliardo%NULL%1,    Michele%D’Aleo%NULL%1,    Ottavio%Giannini%NULL%1,    Antonio%Palma%NULL%1,    Filippo%Brighina%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Anxiety, depression and reduction of quality of life (QoL) are common in people with multiple sclerosis (pwMS).
- Fear of getting sick from COVID-19, government’s lockdown and the imposed social distancing might have had an impact on psychological distress and QoL.
-Objectives
-The aim of our study was to investigate anxiety, depression and QoL changes in pwMS during SARS-CoV-2 outbreak and lockdown in Italy.
-Methods
-id="Par3"&gt;67 pwMS with a previous (less than 6 months) neuropsychological evaluation before SARS-CoV-2 outbreak (T0) were re-evaluated at the time of the outbreak and lockdown in Italy (T1).
- They underwent a clinical and neurological evaluation and completed the State-Trait Anxiety Inventory (STAI-Y1), the Beck Depression Inventory second edition (BDI-II), and Multiple Sclerosis Quality of Life-54 (MsQoL-54) at T0 and T1. Benjamini–Hochberg procedure was applied to control the false discovery rate.
-Results
-id="Par4"&gt;BDI-II and STAI-Y1 scores did not change between T0 and T1. At T1, MsQoL-54 scores were higher on the satisfaction with sexual life and the social function subscales, and lower on the limitation due to emotional problems subscale.
-Conclusions
-id="Par5"&gt;This is the first study that evaluated mood and QoL levels before and during the lockdown due to COVID-19 pandemic in pwMS.
- No worsening of anxiety and depression levels was found.
- Contrariwise some improvements were noted on QoL, the most reliable regarding the sexual satisfaction and the social function.
-</t>
-  </si>
-  <si>
-    <t>[Rocco%Capuano%NULL%1,     Manuela%Altieri%NULL%1,     Alvino%Bisecco%NULL%1,     Alessandro%d’Ambrosio%NULL%1,     Renato%Docimo%NULL%1,     Daniela%Buonanno%NULL%1,     Federica%Matrone%NULL%1,     Federica%Giuliano%NULL%1,     Gioacchino%Tedeschi%NULL%1,     Gabriella%Santangelo%NULL%1,     Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective
-To report the understanding and decision-making of neuroimmunologists and their treatment of patients with multiple sclerosis (MS) during the early stages of the SARS-CoV-2 (COVID-19) outbreak.
-Methods
-A survey instrument was designed and distributed online to neurologists in April 2020.
-Results
-id="Par3"&gt;There were 250 respondents (response rate 21.8%).
- 243 saw &amp;gt;  = 10 MS patients in the prior 6 months (average 197 patients) and were analyzed further (92% USA, 8% Canada; average practice duration 16 years; 5% rural, 17% small city, 38% large city, 40% highly urbanized).
- Patient volume dropped an average of 79% (53–11 per month).
- 23% were aware of patients self-discontinuing a DMT due to fear of COVID-19 with 43% estimated to be doing so against medical advice.
- 65% of respondents reported deferring &amp;gt;  = 1 doses of a DMT (49%), changing the dosing interval (34%), changing to home infusions (20%), switching a DMT (9%), and discontinuing DMTs altogether (8%) as a result of COVID-19. Changes in DMTs were most common with the high-efficacy therapies alemtuzumab, cladribine, ocrelizumab, rituximab, and natalizumab.
- 35% made no changes to DMT prescribing.
- 98% expressed worry about their patients contracting COVID-19 and 78% expressed the same degree of worry about themselves.
-  &amp;gt; 50% believed high-efficacy DMTs prolong viral shedding of SARS-CoV-2 and that B-cell therapies might prevent protective vaccine effects.
- Accelerated pace of telemedicine and practice model changes were identified as major shifts in practice.
-Conclusions
-id="Par4"&gt;Reported prescribing changes and practice disruptions due to COVID-19 may be temporary but could have a lasting influence on MS care.
-Electronic supplementary material
-The online version of this article (10.1007/s00415-020-10045-9) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,     Shawheen%Rezaei%NULL%2,     Shawheen%Rezaei%NULL%0,     Nicholas%Alakel%NULL%1,     Brittany%Gazdag%NULL%1,     Aditya Ravi%Kumar%NULL%1,     Andre%Vogel%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Quarantine was the measure taken by governments to control the rapid spread of COVID-19. This restriction resulted in a sudden change in people’s lifestyle, leading to an increase in sedentary behavior and a related decrease in the practice of physical activity (PA).
- However, in neuromuscular diseases patients need to perform regular PA to counteract the negative consequences of the disease.
- Hence, the aim of this study was to estimate the levels of PA, measured as energy expenditure (MET–minute/week), among patients with neuromuscular disease (NMD) before and during the last week of quarantine.
-Methods
-A total of 268 Italian subjects, living in Sicily, completed an adapted version of the IPAQ-SF.
- Participants comprised 149 NMD, enrolled at the Neuromuscular Clinic of Palermo and 119 healthy subjects (control group).
- The SF-12 questionnaire was also administered to NMD.
- The Mann–Whitney U and the Kruskal–Wallis rank-sum tests were used for statistical analyses.
-Results
-id="Par3"&gt;We observed a significant decrease of the total weekly PA level during COVID-19 quarantine in both patients and controls.
- Moreover, a significant difference in the total weekly PA level was found depending on the presence of neuromuscular disease, impaired walking, gender and BMI.
- Finally, we found a correlation between SF-12 scores and the entity of the reduction of PA level during quarantine, thus confirming a relevant association with the quality of life in NMD.
-Conclusion
-id="Par4"&gt;Our study confirmed that COVID-19 quarantine has affected the practice of PA among both NMD and healthy controls.
-</t>
-  </si>
-  <si>
-    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,     Giuseppe%Battaglia%NULL%2,     Giuseppe%Battaglia%NULL%0,     Valerio%Giustino%NULL%1,     Andrea%Gagliardo%NULL%1,     Michele%D’Aleo%NULL%1,     Ottavio%Giannini%NULL%1,     Antonio%Palma%NULL%1,     Filippo%Brighina%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Anxiety, depression and reduction of quality of life (QoL) are common in people with multiple sclerosis (pwMS).
- Fear of getting sick from COVID-19, government’s lockdown and the imposed social distancing might have had an impact on psychological distress and QoL.
-Objectives
-The aim of our study was to investigate anxiety, depression and QoL changes in pwMS during SARS-CoV-2 outbreak and lockdown in Italy.
-Methods
-67 pwMS with a previous (less than 6 months) neuropsychological evaluation before SARS-CoV-2 outbreak (T0) were re-evaluated at the time of the outbreak and lockdown in Italy (T1).
- They underwent a clinical and neurological evaluation and completed the State-Trait Anxiety Inventory (STAI-Y1), the Beck Depression Inventory second edition (BDI-II), and Multiple Sclerosis Quality of Life-54 (MsQoL-54) at T0 and T1. Benjamini–Hochberg procedure was applied to control the false discovery rate.
-Results
-id="Par4"&gt;BDI-II and STAI-Y1 scores did not change between T0 and T1. At T1, MsQoL-54 scores were higher on the satisfaction with sexual life and the social function subscales, and lower on the limitation due to emotional problems subscale.
-Conclusions
-id="Par5"&gt;This is the first study that evaluated mood and QoL levels before and during the lockdown due to COVID-19 pandemic in pwMS.
- No worsening of anxiety and depression levels was found.
- Contrariwise some improvements were noted on QoL, the most reliable regarding the sexual satisfaction and the social function.
-</t>
-  </si>
-  <si>
-    <t>[Rocco%Capuano%NULL%1,      Manuela%Altieri%NULL%1,      Alvino%Bisecco%NULL%1,      Alessandro%d’Ambrosio%NULL%1,      Renato%Docimo%NULL%1,      Daniela%Buonanno%NULL%1,      Federica%Matrone%NULL%1,      Federica%Giuliano%NULL%1,      Gioacchino%Tedeschi%NULL%1,      Gabriella%Santangelo%NULL%1,      Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective
-To report the understanding and decision-making of neuroimmunologists and their treatment of patients with multiple sclerosis (MS) during the early stages of the SARS-CoV-2 (COVID-19) outbreak.
-Methods
-A survey instrument was designed and distributed online to neurologists in April 2020.
-Results
-There were 250 respondents (response rate 21.8%).
- 243 saw &amp;gt;  = 10 MS patients in the prior 6 months (average 197 patients) and were analyzed further (92% USA, 8% Canada; average practice duration 16 years; 5% rural, 17% small city, 38% large city, 40% highly urbanized).
- Patient volume dropped an average of 79% (53–11 per month).
- 23% were aware of patients self-discontinuing a DMT due to fear of COVID-19 with 43% estimated to be doing so against medical advice.
- 65% of respondents reported deferring &amp;gt;  = 1 doses of a DMT (49%), changing the dosing interval (34%), changing to home infusions (20%), switching a DMT (9%), and discontinuing DMTs altogether (8%) as a result of COVID-19. Changes in DMTs were most common with the high-efficacy therapies alemtuzumab, cladribine, ocrelizumab, rituximab, and natalizumab.
- 35% made no changes to DMT prescribing.
- 98% expressed worry about their patients contracting COVID-19 and 78% expressed the same degree of worry about themselves.
-  &amp;gt; 50% believed high-efficacy DMTs prolong viral shedding of SARS-CoV-2 and that B-cell therapies might prevent protective vaccine effects.
- Accelerated pace of telemedicine and practice model changes were identified as major shifts in practice.
-Conclusions
-id="Par4"&gt;Reported prescribing changes and practice disruptions due to COVID-19 may be temporary but could have a lasting influence on MS care.
-Electronic supplementary material
-The online version of this article (10.1007/s00415-020-10045-9) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,      Shawheen%Rezaei%NULL%2,      Shawheen%Rezaei%NULL%0,      Nicholas%Alakel%NULL%1,      Brittany%Gazdag%NULL%1,      Aditya Ravi%Kumar%NULL%1,      Andre%Vogel%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Quarantine was the measure taken by governments to control the rapid spread of COVID-19. This restriction resulted in a sudden change in people’s lifestyle, leading to an increase in sedentary behavior and a related decrease in the practice of physical activity (PA).
- However, in neuromuscular diseases patients need to perform regular PA to counteract the negative consequences of the disease.
- Hence, the aim of this study was to estimate the levels of PA, measured as energy expenditure (MET–minute/week), among patients with neuromuscular disease (NMD) before and during the last week of quarantine.
-Methods
-A total of 268 Italian subjects, living in Sicily, completed an adapted version of the IPAQ-SF.
- Participants comprised 149 NMD, enrolled at the Neuromuscular Clinic of Palermo and 119 healthy subjects (control group).
- The SF-12 questionnaire was also administered to NMD.
- The Mann–Whitney U and the Kruskal–Wallis rank-sum tests were used for statistical analyses.
-Results
-We observed a significant decrease of the total weekly PA level during COVID-19 quarantine in both patients and controls.
- Moreover, a significant difference in the total weekly PA level was found depending on the presence of neuromuscular disease, impaired walking, gender and BMI.
- Finally, we found a correlation between SF-12 scores and the entity of the reduction of PA level during quarantine, thus confirming a relevant association with the quality of life in NMD.
-Conclusion
-id="Par4"&gt;Our study confirmed that COVID-19 quarantine has affected the practice of PA among both NMD and healthy controls.
-</t>
-  </si>
-  <si>
-    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,      Giuseppe%Battaglia%NULL%2,      Giuseppe%Battaglia%NULL%0,      Valerio%Giustino%NULL%1,      Andrea%Gagliardo%NULL%1,      Michele%D’Aleo%NULL%1,      Ottavio%Giannini%NULL%1,      Antonio%Palma%NULL%1,      Filippo%Brighina%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Anxiety, depression and reduction of quality of life (QoL) are common in people with multiple sclerosis (pwMS).
- Fear of getting sick from COVID-19, government’s lockdown and the imposed social distancing might have had an impact on psychological distress and QoL.
-Objectives
-The aim of our study was to investigate anxiety, depression and QoL changes in pwMS during SARS-CoV-2 outbreak and lockdown in Italy.
-Methods
-67 pwMS with a previous (less than 6 months) neuropsychological evaluation before SARS-CoV-2 outbreak (T0) were re-evaluated at the time of the outbreak and lockdown in Italy (T1).
- They underwent a clinical and neurological evaluation and completed the State-Trait Anxiety Inventory (STAI-Y1), the Beck Depression Inventory second edition (BDI-II), and Multiple Sclerosis Quality of Life-54 (MsQoL-54) at T0 and T1. Benjamini–Hochberg procedure was applied to control the false discovery rate.
-Results
-BDI-II and STAI-Y1 scores did not change between T0 and T1. At T1, MsQoL-54 scores were higher on the satisfaction with sexual life and the social function subscales, and lower on the limitation due to emotional problems subscale.
-Conclusions
-id="Par5"&gt;This is the first study that evaluated mood and QoL levels before and during the lockdown due to COVID-19 pandemic in pwMS.
- No worsening of anxiety and depression levels was found.
- Contrariwise some improvements were noted on QoL, the most reliable regarding the sexual satisfaction and the social function.
-</t>
-  </si>
-  <si>
-    <t>[Rocco%Capuano%NULL%1,       Manuela%Altieri%NULL%1,       Alvino%Bisecco%NULL%1,       Alessandro%d’Ambrosio%NULL%1,       Renato%Docimo%NULL%1,       Daniela%Buonanno%NULL%1,       Federica%Matrone%NULL%1,       Federica%Giuliano%NULL%1,       Gioacchino%Tedeschi%NULL%1,       Gabriella%Santangelo%NULL%1,       Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective
-To report the understanding and decision-making of neuroimmunologists and their treatment of patients with multiple sclerosis (MS) during the early stages of the SARS-CoV-2 (COVID-19) outbreak.
-Methods
-A survey instrument was designed and distributed online to neurologists in April 2020.
-Results
-There were 250 respondents (response rate 21.8%).
- 243 saw &amp;gt;  = 10 MS patients in the prior 6 months (average 197 patients) and were analyzed further (92% USA, 8% Canada; average practice duration 16 years; 5% rural, 17% small city, 38% large city, 40% highly urbanized).
- Patient volume dropped an average of 79% (53–11 per month).
- 23% were aware of patients self-discontinuing a DMT due to fear of COVID-19 with 43% estimated to be doing so against medical advice.
- 65% of respondents reported deferring &amp;gt;  = 1 doses of a DMT (49%), changing the dosing interval (34%), changing to home infusions (20%), switching a DMT (9%), and discontinuing DMTs altogether (8%) as a result of COVID-19. Changes in DMTs were most common with the high-efficacy therapies alemtuzumab, cladribine, ocrelizumab, rituximab, and natalizumab.
- 35% made no changes to DMT prescribing.
- 98% expressed worry about their patients contracting COVID-19 and 78% expressed the same degree of worry about themselves.
-  &amp;gt; 50% believed high-efficacy DMTs prolong viral shedding of SARS-CoV-2 and that B-cell therapies might prevent protective vaccine effects.
- Accelerated pace of telemedicine and practice model changes were identified as major shifts in practice.
-Conclusions
-Reported prescribing changes and practice disruptions due to COVID-19 may be temporary but could have a lasting influence on MS care.
-Electronic supplementary material
-The online version of this article (10.1007/s00415-020-10045-9) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,       Shawheen%Rezaei%NULL%2,       Shawheen%Rezaei%NULL%0,       Nicholas%Alakel%NULL%1,       Brittany%Gazdag%NULL%1,       Aditya Ravi%Kumar%NULL%1,       Andre%Vogel%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Quarantine was the measure taken by governments to control the rapid spread of COVID-19. This restriction resulted in a sudden change in people’s lifestyle, leading to an increase in sedentary behavior and a related decrease in the practice of physical activity (PA).
- However, in neuromuscular diseases patients need to perform regular PA to counteract the negative consequences of the disease.
- Hence, the aim of this study was to estimate the levels of PA, measured as energy expenditure (MET–minute/week), among patients with neuromuscular disease (NMD) before and during the last week of quarantine.
-Methods
-A total of 268 Italian subjects, living in Sicily, completed an adapted version of the IPAQ-SF.
- Participants comprised 149 NMD, enrolled at the Neuromuscular Clinic of Palermo and 119 healthy subjects (control group).
- The SF-12 questionnaire was also administered to NMD.
- The Mann–Whitney U and the Kruskal–Wallis rank-sum tests were used for statistical analyses.
-Results
-We observed a significant decrease of the total weekly PA level during COVID-19 quarantine in both patients and controls.
- Moreover, a significant difference in the total weekly PA level was found depending on the presence of neuromuscular disease, impaired walking, gender and BMI.
- Finally, we found a correlation between SF-12 scores and the entity of the reduction of PA level during quarantine, thus confirming a relevant association with the quality of life in NMD.
-Conclusion
-Our study confirmed that COVID-19 quarantine has affected the practice of PA among both NMD and healthy controls.
-</t>
-  </si>
-  <si>
-    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,       Giuseppe%Battaglia%NULL%2,       Giuseppe%Battaglia%NULL%0,       Valerio%Giustino%NULL%1,       Andrea%Gagliardo%NULL%1,       Michele%D’Aleo%NULL%1,       Ottavio%Giannini%NULL%1,       Antonio%Palma%NULL%1,       Filippo%Brighina%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Anxiety, depression and reduction of quality of life (QoL) are common in people with multiple sclerosis (pwMS).
- Fear of getting sick from COVID-19, government’s lockdown and the imposed social distancing might have had an impact on psychological distress and QoL.
-Objectives
-The aim of our study was to investigate anxiety, depression and QoL changes in pwMS during SARS-CoV-2 outbreak and lockdown in Italy.
-Methods
-67 pwMS with a previous (less than 6 months) neuropsychological evaluation before SARS-CoV-2 outbreak (T0) were re-evaluated at the time of the outbreak and lockdown in Italy (T1).
- They underwent a clinical and neurological evaluation and completed the State-Trait Anxiety Inventory (STAI-Y1), the Beck Depression Inventory second edition (BDI-II), and Multiple Sclerosis Quality of Life-54 (MsQoL-54) at T0 and T1. Benjamini–Hochberg procedure was applied to control the false discovery rate.
-Results
-BDI-II and STAI-Y1 scores did not change between T0 and T1. At T1, MsQoL-54 scores were higher on the satisfaction with sexual life and the social function subscales, and lower on the limitation due to emotional problems subscale.
-Conclusions
-This is the first study that evaluated mood and QoL levels before and during the lockdown due to COVID-19 pandemic in pwMS.
- No worsening of anxiety and depression levels was found.
- Contrariwise some improvements were noted on QoL, the most reliable regarding the sexual satisfaction and the social function.
-</t>
-  </si>
-  <si>
-    <t>[Rocco%Capuano%NULL%1,        Manuela%Altieri%NULL%1,        Alvino%Bisecco%NULL%1,        Alessandro%d’Ambrosio%NULL%1,        Renato%Docimo%NULL%1,        Daniela%Buonanno%NULL%1,        Federica%Matrone%NULL%1,        Federica%Giuliano%NULL%1,        Gioacchino%Tedeschi%NULL%1,        Gabriella%Santangelo%NULL%1,        Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
   </si>
 </sst>
 </file>
@@ -1181,10 +901,10 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1233,10 +953,10 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1363,10 +1083,10 @@
         <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>

--- a/Covid_19_Dataset_and_References/References/108.xlsx
+++ b/Covid_19_Dataset_and_References/References/108.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="117">
   <si>
     <t>Doi</t>
   </si>
@@ -456,6 +456,54 @@
   </si>
   <si>
     <t>[Guillermo F%López-Sánchez%gfls@um.es%1,   Rubén%López-Bueno%rlopezbu@unizar.es%1,   Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,   Roksana%Zauder%NULL%1,   Maria%Skalska%NULL%1,   Joanna%Jastrzębska%NULL%1,   Zbigniew%Jastrzębski%NULL%1,   Felipe B%Schuch%NULL%1,   Igor%Grabovac%NULL%0,   Mark A%Tully%NULL%1,   Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,    H Bart%van der Worp%NULL%2,    H Bart%van der Worp%NULL%0,    Valeria%Caso%NULL%1,    Charlotte%Cordonnier%NULL%1,    Daniel%Strbian%NULL%2,    Daniel%Strbian%NULL%0,    George%Ntaios%NULL%1,    Peter D%Schellinger%NULL%1,    Else Charlotte%Sandset%NULL%1,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,    Clare L.%Gillies%NULL%1,    Francesco%Zaccardi%NULL%0,    Briana%Coles%NULL%1,    Melanie J.%Davies%NULL%1,    Samuel%Seidu%NULL%1,    Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,    Manuela%Altieri%NULL%1,    Alvino%Bisecco%NULL%1,    Alessandro%d’Ambrosio%NULL%1,    Renato%Docimo%NULL%1,    Daniela%Buonanno%NULL%1,    Federica%Matrone%NULL%1,    Federica%Giuliano%NULL%1,    Gioacchino%Tedeschi%NULL%1,    Gabriella%Santangelo%NULL%1,    Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,    Hang%Li%NULL%1,    David%Kung%NULL%1,    Marc%Fisher%NULL%1,    Ying%Shen%NULL%1,    Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,    Shawheen%Rezaei%NULL%2,    Shawheen%Rezaei%NULL%0,    Nicholas%Alakel%NULL%1,    Brittany%Gazdag%NULL%1,    Aditya Ravi%Kumar%NULL%1,    Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,    Jevto%Erakovic%NULL%1,    Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,    Marina%Malobabic%NULL%1,    Vuk%Milosevic%NULL%1,    Jelena%Stojanov%NULL%1,    Slobodan%Vojinovic%NULL%1,    Goran%Stanojevic%NULL%1,    Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,    Enrico%Di Stasio%NULL%1,    Guido%Primiano%NULL%1,    Delfina%Janiri%NULL%1,    Marco%Luigetti%NULL%1,    Giovanni%Frisullo%NULL%1,    Catello%Vollono%NULL%1,    Matteo%Lucchini%NULL%1,    Valerio%Brunetti%NULL%1,    Mauro%Monforte%NULL%1,    Valeria%Guglielmi%NULL%1,    Giacomo%Della Marca%NULL%1,    Amelia%Evoli%NULL%1,    Camillo%Marra%NULL%1,    Massimiliano%Mirabella%NULL%1,    Davide%Quaranta%NULL%1,    Enzo%Ricci%NULL%1,    Serenella%Servidei%NULL%1,    Gabriella%Silvestri%NULL%1,    Simone%Bellavia%NULL%1,    Sara%Bortolani%NULL%1,    Francesco%Bove%NULL%1,    Riccardo%Di Iorio%NULL%1,    Andrea%Di Paolantonio%NULL%1,    Danilo%Genovese%NULL%1,    Tamara%Ialongo%NULL%1,    Maria Rita%Lo Monaco%NULL%1,    Jessica%Marotta%NULL%1,    Agata Katia%Patanella%NULL%1,    Alessia%Perna%NULL%1,    Martina%Petracca%NULL%1,    Giorgia%Presicce%NULL%1,    Vittorio%Riso%NULL%1,    Eleonora%Rollo%NULL%1,    Angela%Romano%NULL%1,    Marina%Romozzi%NULL%1,    Cristina%Sancricca%NULL%1,    Irene%Scala%NULL%1,    Gregorio%Spagni%NULL%1,    Marcella%Solito%NULL%1,    Luca%Tricoli%NULL%1,    Paola%Zinzi%NULL%1,    Paolo%Calabresi%NULL%1,    Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Accogli%M.%coreGivesNoEmail%1,  Barone%R.%coreGivesNoEmail%1,  Capozzo%R.%coreGivesNoEmail%1,  Logroscino%G.%coreGivesNoEmail%1,  Musio%M.%coreGivesNoEmail%1,  Zoccolella%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,    Giuseppe%Battaglia%NULL%2,    Giuseppe%Battaglia%NULL%0,    Valerio%Giustino%NULL%1,    Andrea%Gagliardo%NULL%1,    Michele%D’Aleo%NULL%1,    Ottavio%Giannini%NULL%1,    Antonio%Palma%NULL%1,    Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,    Rubén%López-Bueno%rlopezbu@unizar.es%1,    Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,    Roksana%Zauder%NULL%1,    Maria%Skalska%NULL%1,    Joanna%Jastrzębska%NULL%1,    Zbigniew%Jastrzębski%NULL%1,    Felipe B%Schuch%NULL%1,    Igor%Grabovac%NULL%0,    Mark A%Tully%NULL%1,    Lee%Smith%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -837,6 +885,9 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
+      <c r="I1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -852,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -862,6 +913,9 @@
       </c>
       <c r="H2" t="s">
         <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3">
@@ -878,7 +932,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -888,6 +942,9 @@
       </c>
       <c r="H3" t="s">
         <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4">
@@ -904,7 +961,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -914,6 +971,9 @@
       </c>
       <c r="H4" t="s">
         <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5">
@@ -930,7 +990,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -940,6 +1000,9 @@
       </c>
       <c r="H5" t="s">
         <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6">
@@ -956,7 +1019,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -966,6 +1029,9 @@
       </c>
       <c r="H6" t="s">
         <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="7">
@@ -982,7 +1048,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -992,6 +1058,9 @@
       </c>
       <c r="H7" t="s">
         <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -1008,7 +1077,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1018,6 +1087,9 @@
       </c>
       <c r="H8" t="s">
         <v>60</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -1034,7 +1106,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1044,6 +1116,9 @@
       </c>
       <c r="H9" t="s">
         <v>65</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="10">
@@ -1060,16 +1135,19 @@
         <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
         <v>66</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -1086,7 +1164,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1096,6 +1174,9 @@
       </c>
       <c r="H11" t="s">
         <v>71</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="12">
@@ -1112,7 +1193,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1122,6 +1203,9 @@
       </c>
       <c r="H12" t="s">
         <v>76</v>
+      </c>
+      <c r="I12" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/108.xlsx
+++ b/Covid_19_Dataset_and_References/References/108.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="150">
   <si>
     <t>Doi</t>
   </si>
@@ -504,6 +504,105 @@
   </si>
   <si>
     <t>[Guillermo F%López-Sánchez%gfls@um.es%1,    Rubén%López-Bueno%rlopezbu@unizar.es%1,    Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,    Roksana%Zauder%NULL%1,    Maria%Skalska%NULL%1,    Joanna%Jastrzębska%NULL%1,    Zbigniew%Jastrzębski%NULL%1,    Felipe B%Schuch%NULL%1,    Igor%Grabovac%NULL%0,    Mark A%Tully%NULL%1,    Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,     H Bart%van der Worp%NULL%2,     H Bart%van der Worp%NULL%0,     Valeria%Caso%NULL%1,     Charlotte%Cordonnier%NULL%1,     Daniel%Strbian%NULL%2,     Daniel%Strbian%NULL%0,     George%Ntaios%NULL%1,     Peter D%Schellinger%NULL%1,     Else Charlotte%Sandset%NULL%1,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,     Clare L.%Gillies%NULL%1,     Francesco%Zaccardi%NULL%0,     Briana%Coles%NULL%1,     Melanie J.%Davies%NULL%1,     Samuel%Seidu%NULL%1,     Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,     Manuela%Altieri%NULL%1,     Alvino%Bisecco%NULL%1,     Alessandro%d’Ambrosio%NULL%1,     Renato%Docimo%NULL%1,     Daniela%Buonanno%NULL%1,     Federica%Matrone%NULL%1,     Federica%Giuliano%NULL%1,     Gioacchino%Tedeschi%NULL%1,     Gabriella%Santangelo%NULL%1,     Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,     Hang%Li%NULL%1,     David%Kung%NULL%1,     Marc%Fisher%NULL%1,     Ying%Shen%NULL%1,     Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,     Shawheen%Rezaei%NULL%2,     Shawheen%Rezaei%NULL%0,     Nicholas%Alakel%NULL%1,     Brittany%Gazdag%NULL%1,     Aditya Ravi%Kumar%NULL%1,     Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,     Jevto%Erakovic%NULL%1,     Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,     Marina%Malobabic%NULL%1,     Vuk%Milosevic%NULL%1,     Jelena%Stojanov%NULL%1,     Slobodan%Vojinovic%NULL%1,     Goran%Stanojevic%NULL%1,     Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,     Enrico%Di Stasio%NULL%1,     Guido%Primiano%NULL%1,     Delfina%Janiri%NULL%1,     Marco%Luigetti%NULL%1,     Giovanni%Frisullo%NULL%1,     Catello%Vollono%NULL%1,     Matteo%Lucchini%NULL%1,     Valerio%Brunetti%NULL%1,     Mauro%Monforte%NULL%1,     Valeria%Guglielmi%NULL%1,     Giacomo%Della Marca%NULL%1,     Amelia%Evoli%NULL%1,     Camillo%Marra%NULL%1,     Massimiliano%Mirabella%NULL%1,     Davide%Quaranta%NULL%1,     Enzo%Ricci%NULL%1,     Serenella%Servidei%NULL%1,     Gabriella%Silvestri%NULL%1,     Simone%Bellavia%NULL%1,     Sara%Bortolani%NULL%1,     Francesco%Bove%NULL%1,     Riccardo%Di Iorio%NULL%1,     Andrea%Di Paolantonio%NULL%1,     Danilo%Genovese%NULL%1,     Tamara%Ialongo%NULL%1,     Maria Rita%Lo Monaco%NULL%1,     Jessica%Marotta%NULL%1,     Agata Katia%Patanella%NULL%1,     Alessia%Perna%NULL%1,     Martina%Petracca%NULL%1,     Giorgia%Presicce%NULL%1,     Vittorio%Riso%NULL%1,     Eleonora%Rollo%NULL%1,     Angela%Romano%NULL%1,     Marina%Romozzi%NULL%1,     Cristina%Sancricca%NULL%1,     Irene%Scala%NULL%1,     Gregorio%Spagni%NULL%1,     Marcella%Solito%NULL%1,     Luca%Tricoli%NULL%1,     Paola%Zinzi%NULL%1,     Paolo%Calabresi%NULL%1,     Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Accogli%M.%coreGivesNoEmail%1,   Barone%R.%coreGivesNoEmail%1,   Capozzo%R.%coreGivesNoEmail%1,   Logroscino%G.%coreGivesNoEmail%1,   Musio%M.%coreGivesNoEmail%1,   Zoccolella%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,     Giuseppe%Battaglia%NULL%2,     Giuseppe%Battaglia%NULL%0,     Valerio%Giustino%NULL%1,     Andrea%Gagliardo%NULL%1,     Michele%D’Aleo%NULL%1,     Ottavio%Giannini%NULL%1,     Antonio%Palma%NULL%1,     Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,     Rubén%López-Bueno%rlopezbu@unizar.es%1,     Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,     Roksana%Zauder%NULL%1,     Maria%Skalska%NULL%1,     Joanna%Jastrzębska%NULL%1,     Zbigniew%Jastrzębski%NULL%1,     Felipe B%Schuch%NULL%1,     Igor%Grabovac%NULL%0,     Mark A%Tully%NULL%1,     Lee%Smith%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,      H Bart%van der Worp%NULL%2,      H Bart%van der Worp%NULL%0,      Valeria%Caso%NULL%1,      Charlotte%Cordonnier%NULL%1,      Daniel%Strbian%NULL%2,      Daniel%Strbian%NULL%0,      George%Ntaios%NULL%1,      Peter D%Schellinger%NULL%1,      Else Charlotte%Sandset%NULL%1,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,      Clare L.%Gillies%NULL%1,      Francesco%Zaccardi%NULL%0,      Briana%Coles%NULL%1,      Melanie J.%Davies%NULL%1,      Samuel%Seidu%NULL%1,      Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,      Manuela%Altieri%NULL%1,      Alvino%Bisecco%NULL%1,      Alessandro%d’Ambrosio%NULL%1,      Renato%Docimo%NULL%1,      Daniela%Buonanno%NULL%1,      Federica%Matrone%NULL%1,      Federica%Giuliano%NULL%1,      Gioacchino%Tedeschi%NULL%1,      Gabriella%Santangelo%NULL%1,      Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,      Hang%Li%NULL%1,      David%Kung%NULL%1,      Marc%Fisher%NULL%1,      Ying%Shen%NULL%1,      Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,      Shawheen%Rezaei%NULL%2,      Shawheen%Rezaei%NULL%0,      Nicholas%Alakel%NULL%1,      Brittany%Gazdag%NULL%1,      Aditya Ravi%Kumar%NULL%1,      Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,      Jevto%Erakovic%NULL%1,      Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,      Marina%Malobabic%NULL%1,      Vuk%Milosevic%NULL%1,      Jelena%Stojanov%NULL%1,      Slobodan%Vojinovic%NULL%1,      Goran%Stanojevic%NULL%1,      Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,      Enrico%Di Stasio%NULL%1,      Guido%Primiano%NULL%1,      Delfina%Janiri%NULL%1,      Marco%Luigetti%NULL%1,      Giovanni%Frisullo%NULL%1,      Catello%Vollono%NULL%1,      Matteo%Lucchini%NULL%1,      Valerio%Brunetti%NULL%1,      Mauro%Monforte%NULL%1,      Valeria%Guglielmi%NULL%1,      Giacomo%Della Marca%NULL%1,      Amelia%Evoli%NULL%1,      Camillo%Marra%NULL%1,      Massimiliano%Mirabella%NULL%1,      Davide%Quaranta%NULL%1,      Enzo%Ricci%NULL%1,      Serenella%Servidei%NULL%1,      Gabriella%Silvestri%NULL%1,      Simone%Bellavia%NULL%1,      Sara%Bortolani%NULL%1,      Francesco%Bove%NULL%1,      Riccardo%Di Iorio%NULL%1,      Andrea%Di Paolantonio%NULL%1,      Danilo%Genovese%NULL%1,      Tamara%Ialongo%NULL%1,      Maria Rita%Lo Monaco%NULL%1,      Jessica%Marotta%NULL%1,      Agata Katia%Patanella%NULL%1,      Alessia%Perna%NULL%1,      Martina%Petracca%NULL%1,      Giorgia%Presicce%NULL%1,      Vittorio%Riso%NULL%1,      Eleonora%Rollo%NULL%1,      Angela%Romano%NULL%1,      Marina%Romozzi%NULL%1,      Cristina%Sancricca%NULL%1,      Irene%Scala%NULL%1,      Gregorio%Spagni%NULL%1,      Marcella%Solito%NULL%1,      Luca%Tricoli%NULL%1,      Paola%Zinzi%NULL%1,      Paolo%Calabresi%NULL%1,      Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Accogli%M.%coreGivesNoEmail%1,    Barone%R.%coreGivesNoEmail%1,    Capozzo%R.%coreGivesNoEmail%1,    Logroscino%G.%coreGivesNoEmail%1,    Musio%M.%coreGivesNoEmail%1,    Zoccolella%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,      Giuseppe%Battaglia%NULL%2,      Giuseppe%Battaglia%NULL%0,      Valerio%Giustino%NULL%1,      Andrea%Gagliardo%NULL%1,      Michele%D’Aleo%NULL%1,      Ottavio%Giannini%NULL%1,      Antonio%Palma%NULL%1,      Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,      Rubén%López-Bueno%rlopezbu@unizar.es%1,      Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,      Roksana%Zauder%NULL%1,      Maria%Skalska%NULL%1,      Joanna%Jastrzębska%NULL%1,      Zbigniew%Jastrzębski%NULL%1,      Felipe B%Schuch%NULL%1,      Igor%Grabovac%NULL%0,      Mark A%Tully%NULL%1,      Lee%Smith%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,       H Bart%van der Worp%NULL%2,       H Bart%van der Worp%NULL%0,       Valeria%Caso%NULL%1,       Charlotte%Cordonnier%NULL%1,       Daniel%Strbian%NULL%2,       Daniel%Strbian%NULL%0,       George%Ntaios%NULL%1,       Peter D%Schellinger%NULL%1,       Else Charlotte%Sandset%NULL%1,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,       Clare L.%Gillies%NULL%1,       Francesco%Zaccardi%NULL%0,       Briana%Coles%NULL%1,       Melanie J.%Davies%NULL%1,       Samuel%Seidu%NULL%1,       Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,       Manuela%Altieri%NULL%1,       Alvino%Bisecco%NULL%1,       Alessandro%d’Ambrosio%NULL%1,       Renato%Docimo%NULL%1,       Daniela%Buonanno%NULL%1,       Federica%Matrone%NULL%1,       Federica%Giuliano%NULL%1,       Gioacchino%Tedeschi%NULL%1,       Gabriella%Santangelo%NULL%1,       Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,       Hang%Li%NULL%1,       David%Kung%NULL%1,       Marc%Fisher%NULL%1,       Ying%Shen%NULL%1,       Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,       Shawheen%Rezaei%NULL%2,       Shawheen%Rezaei%NULL%0,       Nicholas%Alakel%NULL%1,       Brittany%Gazdag%NULL%1,       Aditya Ravi%Kumar%NULL%1,       Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,       Jevto%Erakovic%NULL%1,       Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,       Marina%Malobabic%NULL%1,       Vuk%Milosevic%NULL%1,       Jelena%Stojanov%NULL%1,       Slobodan%Vojinovic%NULL%1,       Goran%Stanojevic%NULL%1,       Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,       Enrico%Di Stasio%NULL%1,       Guido%Primiano%NULL%1,       Delfina%Janiri%NULL%1,       Marco%Luigetti%NULL%1,       Giovanni%Frisullo%NULL%1,       Catello%Vollono%NULL%1,       Matteo%Lucchini%NULL%1,       Valerio%Brunetti%NULL%1,       Mauro%Monforte%NULL%1,       Valeria%Guglielmi%NULL%1,       Giacomo%Della Marca%NULL%1,       Amelia%Evoli%NULL%1,       Camillo%Marra%NULL%1,       Massimiliano%Mirabella%NULL%1,       Davide%Quaranta%NULL%1,       Enzo%Ricci%NULL%1,       Serenella%Servidei%NULL%1,       Gabriella%Silvestri%NULL%1,       Simone%Bellavia%NULL%1,       Sara%Bortolani%NULL%1,       Francesco%Bove%NULL%1,       Riccardo%Di Iorio%NULL%1,       Andrea%Di Paolantonio%NULL%1,       Danilo%Genovese%NULL%1,       Tamara%Ialongo%NULL%1,       Maria Rita%Lo Monaco%NULL%1,       Jessica%Marotta%NULL%1,       Agata Katia%Patanella%NULL%1,       Alessia%Perna%NULL%1,       Martina%Petracca%NULL%1,       Giorgia%Presicce%NULL%1,       Vittorio%Riso%NULL%1,       Eleonora%Rollo%NULL%1,       Angela%Romano%NULL%1,       Marina%Romozzi%NULL%1,       Cristina%Sancricca%NULL%1,       Irene%Scala%NULL%1,       Gregorio%Spagni%NULL%1,       Marcella%Solito%NULL%1,       Luca%Tricoli%NULL%1,       Paola%Zinzi%NULL%1,       Paolo%Calabresi%NULL%1,       Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Accogli%M.%coreGivesNoEmail%1,     Barone%R.%coreGivesNoEmail%1,     Capozzo%R.%coreGivesNoEmail%1,     Logroscino%G.%coreGivesNoEmail%1,     Musio%M.%coreGivesNoEmail%1,     Zoccolella%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,       Giuseppe%Battaglia%NULL%2,       Giuseppe%Battaglia%NULL%0,       Valerio%Giustino%NULL%1,       Andrea%Gagliardo%NULL%1,       Michele%D’Aleo%NULL%1,       Ottavio%Giannini%NULL%1,       Antonio%Palma%NULL%1,       Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,       Rubén%López-Bueno%rlopezbu@unizar.es%1,       Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,       Roksana%Zauder%NULL%1,       Maria%Skalska%NULL%1,       Joanna%Jastrzębska%NULL%1,       Zbigniew%Jastrzębski%NULL%1,       Felipe B%Schuch%NULL%1,       Igor%Grabovac%NULL%0,       Mark A%Tully%NULL%1,       Lee%Smith%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -903,7 +1002,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -932,7 +1031,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -961,7 +1060,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -990,7 +1089,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1019,7 +1118,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1048,7 +1147,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1077,7 +1176,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1106,7 +1205,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1135,13 +1234,13 @@
         <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="H10" t="s">
         <v>66</v>
@@ -1164,7 +1263,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1193,7 +1292,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/108.xlsx
+++ b/Covid_19_Dataset_and_References/References/108.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="172">
   <si>
     <t>Doi</t>
   </si>
@@ -603,6 +603,72 @@
   </si>
   <si>
     <t>[Guillermo F%López-Sánchez%gfls@um.es%1,       Rubén%López-Bueno%rlopezbu@unizar.es%1,       Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,       Roksana%Zauder%NULL%1,       Maria%Skalska%NULL%1,       Joanna%Jastrzębska%NULL%1,       Zbigniew%Jastrzębski%NULL%1,       Felipe B%Schuch%NULL%1,       Igor%Grabovac%NULL%0,       Mark A%Tully%NULL%1,       Lee%Smith%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,        H Bart%van der Worp%NULL%2,        H Bart%van der Worp%NULL%0,        Valeria%Caso%NULL%1,        Charlotte%Cordonnier%NULL%1,        Daniel%Strbian%NULL%2,        Daniel%Strbian%NULL%0,        George%Ntaios%NULL%1,        Peter D%Schellinger%NULL%1,        Else Charlotte%Sandset%NULL%1,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,        Clare L.%Gillies%NULL%1,        Francesco%Zaccardi%NULL%0,        Briana%Coles%NULL%1,        Melanie J.%Davies%NULL%1,        Samuel%Seidu%NULL%1,        Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,        Manuela%Altieri%NULL%1,        Alvino%Bisecco%NULL%1,        Alessandro%d’Ambrosio%NULL%1,        Renato%Docimo%NULL%1,        Daniela%Buonanno%NULL%1,        Federica%Matrone%NULL%1,        Federica%Giuliano%NULL%1,        Gioacchino%Tedeschi%NULL%1,        Gabriella%Santangelo%NULL%1,        Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,        Hang%Li%NULL%1,        David%Kung%NULL%1,        Marc%Fisher%NULL%1,        Ying%Shen%NULL%1,        Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,        Shawheen%Rezaei%NULL%2,        Shawheen%Rezaei%NULL%0,        Nicholas%Alakel%NULL%1,        Brittany%Gazdag%NULL%1,        Aditya Ravi%Kumar%NULL%1,        Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,        Jevto%Erakovic%NULL%1,        Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,        Marina%Malobabic%NULL%1,        Vuk%Milosevic%NULL%1,        Jelena%Stojanov%NULL%1,        Slobodan%Vojinovic%NULL%1,        Goran%Stanojevic%NULL%1,        Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,        Enrico%Di Stasio%NULL%1,        Guido%Primiano%NULL%1,        Delfina%Janiri%NULL%1,        Marco%Luigetti%NULL%1,        Giovanni%Frisullo%NULL%1,        Catello%Vollono%NULL%1,        Matteo%Lucchini%NULL%1,        Valerio%Brunetti%NULL%1,        Mauro%Monforte%NULL%1,        Valeria%Guglielmi%NULL%1,        Giacomo%Della Marca%NULL%1,        Amelia%Evoli%NULL%1,        Camillo%Marra%NULL%1,        Massimiliano%Mirabella%NULL%1,        Davide%Quaranta%NULL%1,        Enzo%Ricci%NULL%1,        Serenella%Servidei%NULL%1,        Gabriella%Silvestri%NULL%1,        Simone%Bellavia%NULL%1,        Sara%Bortolani%NULL%1,        Francesco%Bove%NULL%1,        Riccardo%Di Iorio%NULL%1,        Andrea%Di Paolantonio%NULL%1,        Danilo%Genovese%NULL%1,        Tamara%Ialongo%NULL%1,        Maria Rita%Lo Monaco%NULL%1,        Jessica%Marotta%NULL%1,        Agata Katia%Patanella%NULL%1,        Alessia%Perna%NULL%1,        Martina%Petracca%NULL%1,        Giorgia%Presicce%NULL%1,        Vittorio%Riso%NULL%1,        Eleonora%Rollo%NULL%1,        Angela%Romano%NULL%1,        Marina%Romozzi%NULL%1,        Cristina%Sancricca%NULL%1,        Irene%Scala%NULL%1,        Gregorio%Spagni%NULL%1,        Marcella%Solito%NULL%1,        Luca%Tricoli%NULL%1,        Paola%Zinzi%NULL%1,        Paolo%Calabresi%NULL%1,        Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Accogli%M.%coreGivesNoEmail%1,      Barone%R.%coreGivesNoEmail%1,      Capozzo%R.%coreGivesNoEmail%1,      Logroscino%G.%coreGivesNoEmail%1,      Musio%M.%coreGivesNoEmail%1,      Zoccolella%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,        Giuseppe%Battaglia%NULL%2,        Giuseppe%Battaglia%NULL%0,        Valerio%Giustino%NULL%1,        Andrea%Gagliardo%NULL%1,        Michele%D’Aleo%NULL%1,        Ottavio%Giannini%NULL%1,        Antonio%Palma%NULL%1,        Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,        Rubén%López-Bueno%rlopezbu@unizar.es%1,        Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,        Roksana%Zauder%NULL%1,        Maria%Skalska%NULL%1,        Joanna%Jastrzębska%NULL%1,        Zbigniew%Jastrzębski%NULL%1,        Felipe B%Schuch%NULL%1,        Igor%Grabovac%NULL%1,        Mark A%Tully%NULL%1,        Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,         H Bart%van der Worp%NULL%2,         H Bart%van der Worp%NULL%0,         Valeria%Caso%NULL%1,         Charlotte%Cordonnier%NULL%1,         Daniel%Strbian%NULL%2,         Daniel%Strbian%NULL%0,         George%Ntaios%NULL%1,         Peter D%Schellinger%NULL%1,         Else Charlotte%Sandset%NULL%1,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,         Clare L.%Gillies%NULL%1,         Francesco%Zaccardi%NULL%0,         Briana%Coles%NULL%1,         Melanie J.%Davies%NULL%1,         Samuel%Seidu%NULL%1,         Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,         Manuela%Altieri%NULL%1,         Alvino%Bisecco%NULL%1,         Alessandro%d’Ambrosio%NULL%1,         Renato%Docimo%NULL%1,         Daniela%Buonanno%NULL%1,         Federica%Matrone%NULL%1,         Federica%Giuliano%NULL%1,         Gioacchino%Tedeschi%NULL%1,         Gabriella%Santangelo%NULL%1,         Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,         Hang%Li%NULL%1,         David%Kung%NULL%1,         Marc%Fisher%NULL%1,         Ying%Shen%NULL%1,         Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,         Shawheen%Rezaei%NULL%2,         Shawheen%Rezaei%NULL%0,         Nicholas%Alakel%NULL%1,         Brittany%Gazdag%NULL%1,         Aditya Ravi%Kumar%NULL%1,         Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,         Jevto%Erakovic%NULL%1,         Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,         Marina%Malobabic%NULL%1,         Vuk%Milosevic%NULL%1,         Jelena%Stojanov%NULL%1,         Slobodan%Vojinovic%NULL%1,         Goran%Stanojevic%NULL%1,         Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,         Enrico%Di Stasio%NULL%1,         Guido%Primiano%NULL%1,         Delfina%Janiri%NULL%1,         Marco%Luigetti%NULL%1,         Giovanni%Frisullo%NULL%1,         Catello%Vollono%NULL%1,         Matteo%Lucchini%NULL%1,         Valerio%Brunetti%NULL%1,         Mauro%Monforte%NULL%1,         Valeria%Guglielmi%NULL%1,         Giacomo%Della Marca%NULL%1,         Amelia%Evoli%NULL%1,         Camillo%Marra%NULL%1,         Massimiliano%Mirabella%NULL%1,         Davide%Quaranta%NULL%1,         Enzo%Ricci%NULL%1,         Serenella%Servidei%NULL%1,         Gabriella%Silvestri%NULL%1,         Simone%Bellavia%NULL%1,         Sara%Bortolani%NULL%1,         Francesco%Bove%NULL%1,         Riccardo%Di Iorio%NULL%1,         Andrea%Di Paolantonio%NULL%1,         Danilo%Genovese%NULL%1,         Tamara%Ialongo%NULL%1,         Maria Rita%Lo Monaco%NULL%1,         Jessica%Marotta%NULL%1,         Agata Katia%Patanella%NULL%1,         Alessia%Perna%NULL%1,         Martina%Petracca%NULL%1,         Giorgia%Presicce%NULL%1,         Vittorio%Riso%NULL%1,         Eleonora%Rollo%NULL%1,         Angela%Romano%NULL%1,         Marina%Romozzi%NULL%1,         Cristina%Sancricca%NULL%1,         Irene%Scala%NULL%1,         Gregorio%Spagni%NULL%1,         Marcella%Solito%NULL%1,         Luca%Tricoli%NULL%1,         Paola%Zinzi%NULL%1,         Paolo%Calabresi%NULL%1,         Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Accogli%M.%coreGivesNoEmail%1,       Barone%R.%coreGivesNoEmail%1,       Capozzo%R.%coreGivesNoEmail%1,       Logroscino%G.%coreGivesNoEmail%1,       Musio%M.%coreGivesNoEmail%1,       Zoccolella%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,         Giuseppe%Battaglia%NULL%2,         Giuseppe%Battaglia%NULL%0,         Valerio%Giustino%NULL%1,         Andrea%Gagliardo%NULL%1,         Michele%D’Aleo%NULL%1,         Ottavio%Giannini%NULL%1,         Antonio%Palma%NULL%1,         Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,         Rubén%López-Bueno%rlopezbu@unizar.es%1,         Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,         Roksana%Zauder%NULL%1,         Maria%Skalska%NULL%1,         Joanna%Jastrzębska%NULL%1,         Zbigniew%Jastrzębski%NULL%1,         Felipe B%Schuch%NULL%1,         Igor%Grabovac%NULL%1,         Mark A%Tully%NULL%1,         Lee%Smith%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1068,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1031,7 +1097,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1060,7 +1126,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1089,7 +1155,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1118,7 +1184,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1147,7 +1213,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1176,7 +1242,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1205,7 +1271,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1234,7 +1300,7 @@
         <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1263,7 +1329,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1292,7 +1358,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/108.xlsx
+++ b/Covid_19_Dataset_and_References/References/108.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="194">
   <si>
     <t>Doi</t>
   </si>
@@ -669,6 +669,72 @@
   </si>
   <si>
     <t>[Guillermo F%López-Sánchez%gfls@um.es%1,         Rubén%López-Bueno%rlopezbu@unizar.es%1,         Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,         Roksana%Zauder%NULL%1,         Maria%Skalska%NULL%1,         Joanna%Jastrzębska%NULL%1,         Zbigniew%Jastrzębski%NULL%1,         Felipe B%Schuch%NULL%1,         Igor%Grabovac%NULL%1,         Mark A%Tully%NULL%1,         Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,          H Bart%van der Worp%NULL%2,          H Bart%van der Worp%NULL%0,          Valeria%Caso%NULL%1,          Charlotte%Cordonnier%NULL%1,          Daniel%Strbian%NULL%2,          Daniel%Strbian%NULL%0,          George%Ntaios%NULL%1,          Peter D%Schellinger%NULL%1,          Else Charlotte%Sandset%NULL%1,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,          Clare L.%Gillies%NULL%1,          Francesco%Zaccardi%NULL%0,          Briana%Coles%NULL%1,          Melanie J.%Davies%NULL%1,          Samuel%Seidu%NULL%1,          Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,          Manuela%Altieri%NULL%1,          Alvino%Bisecco%NULL%1,          Alessandro%d’Ambrosio%NULL%1,          Renato%Docimo%NULL%1,          Daniela%Buonanno%NULL%1,          Federica%Matrone%NULL%1,          Federica%Giuliano%NULL%1,          Gioacchino%Tedeschi%NULL%1,          Gabriella%Santangelo%NULL%1,          Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,          Hang%Li%NULL%1,          David%Kung%NULL%1,          Marc%Fisher%NULL%1,          Ying%Shen%NULL%1,          Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,          Shawheen%Rezaei%NULL%2,          Shawheen%Rezaei%NULL%0,          Nicholas%Alakel%NULL%1,          Brittany%Gazdag%NULL%1,          Aditya Ravi%Kumar%NULL%1,          Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,          Jevto%Erakovic%NULL%1,          Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,          Marina%Malobabic%NULL%1,          Vuk%Milosevic%NULL%1,          Jelena%Stojanov%NULL%1,          Slobodan%Vojinovic%NULL%1,          Goran%Stanojevic%NULL%1,          Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,          Enrico%Di Stasio%NULL%1,          Guido%Primiano%NULL%1,          Delfina%Janiri%NULL%1,          Marco%Luigetti%NULL%1,          Giovanni%Frisullo%NULL%1,          Catello%Vollono%NULL%1,          Matteo%Lucchini%NULL%1,          Valerio%Brunetti%NULL%1,          Mauro%Monforte%NULL%1,          Valeria%Guglielmi%NULL%1,          Giacomo%Della Marca%NULL%1,          Amelia%Evoli%NULL%1,          Camillo%Marra%NULL%1,          Massimiliano%Mirabella%NULL%1,          Davide%Quaranta%NULL%1,          Enzo%Ricci%NULL%1,          Serenella%Servidei%NULL%1,          Gabriella%Silvestri%NULL%1,          Simone%Bellavia%NULL%1,          Sara%Bortolani%NULL%1,          Francesco%Bove%NULL%1,          Riccardo%Di Iorio%NULL%1,          Andrea%Di Paolantonio%NULL%1,          Danilo%Genovese%NULL%1,          Tamara%Ialongo%NULL%1,          Maria Rita%Lo Monaco%NULL%1,          Jessica%Marotta%NULL%1,          Agata Katia%Patanella%NULL%1,          Alessia%Perna%NULL%1,          Martina%Petracca%NULL%1,          Giorgia%Presicce%NULL%1,          Vittorio%Riso%NULL%1,          Eleonora%Rollo%NULL%1,          Angela%Romano%NULL%1,          Marina%Romozzi%NULL%1,          Cristina%Sancricca%NULL%1,          Irene%Scala%NULL%1,          Gregorio%Spagni%NULL%1,          Marcella%Solito%NULL%1,          Luca%Tricoli%NULL%1,          Paola%Zinzi%NULL%1,          Paolo%Calabresi%NULL%1,          Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Accogli%M.%coreGivesNoEmail%1,        Barone%R.%coreGivesNoEmail%1,        Capozzo%R.%coreGivesNoEmail%1,        Logroscino%G.%coreGivesNoEmail%1,        Musio%M.%coreGivesNoEmail%1,        Zoccolella%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,          Giuseppe%Battaglia%NULL%2,          Giuseppe%Battaglia%NULL%0,          Valerio%Giustino%NULL%1,          Andrea%Gagliardo%NULL%1,          Michele%D’Aleo%NULL%1,          Ottavio%Giannini%NULL%1,          Antonio%Palma%NULL%1,          Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,          Rubén%López-Bueno%rlopezbu@unizar.es%1,          Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,          Roksana%Zauder%NULL%1,          Maria%Skalska%NULL%1,          Joanna%Jastrzębska%NULL%1,          Zbigniew%Jastrzębski%NULL%1,          Felipe B%Schuch%NULL%1,          Igor%Grabovac%NULL%1,          Mark A%Tully%NULL%1,          Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,           H Bart%van der Worp%NULL%2,           H Bart%van der Worp%NULL%0,           Valeria%Caso%NULL%1,           Charlotte%Cordonnier%NULL%1,           Daniel%Strbian%NULL%2,           Daniel%Strbian%NULL%0,           George%Ntaios%NULL%1,           Peter D%Schellinger%NULL%1,           Else Charlotte%Sandset%NULL%1,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,           Clare L.%Gillies%NULL%1,           Francesco%Zaccardi%NULL%0,           Briana%Coles%NULL%1,           Melanie J.%Davies%NULL%1,           Samuel%Seidu%NULL%1,           Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,           Manuela%Altieri%NULL%1,           Alvino%Bisecco%NULL%1,           Alessandro%d’Ambrosio%NULL%1,           Renato%Docimo%NULL%1,           Daniela%Buonanno%NULL%1,           Federica%Matrone%NULL%1,           Federica%Giuliano%NULL%1,           Gioacchino%Tedeschi%NULL%1,           Gabriella%Santangelo%NULL%1,           Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,           Hang%Li%NULL%1,           David%Kung%NULL%1,           Marc%Fisher%NULL%1,           Ying%Shen%NULL%1,           Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,           Shawheen%Rezaei%NULL%2,           Shawheen%Rezaei%NULL%0,           Nicholas%Alakel%NULL%1,           Brittany%Gazdag%NULL%1,           Aditya Ravi%Kumar%NULL%1,           Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,           Jevto%Erakovic%NULL%1,           Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,           Marina%Malobabic%NULL%1,           Vuk%Milosevic%NULL%1,           Jelena%Stojanov%NULL%1,           Slobodan%Vojinovic%NULL%1,           Goran%Stanojevic%NULL%1,           Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,           Enrico%Di Stasio%NULL%1,           Guido%Primiano%NULL%1,           Delfina%Janiri%NULL%1,           Marco%Luigetti%NULL%1,           Giovanni%Frisullo%NULL%1,           Catello%Vollono%NULL%1,           Matteo%Lucchini%NULL%1,           Valerio%Brunetti%NULL%1,           Mauro%Monforte%NULL%1,           Valeria%Guglielmi%NULL%1,           Giacomo%Della Marca%NULL%1,           Amelia%Evoli%NULL%1,           Camillo%Marra%NULL%1,           Massimiliano%Mirabella%NULL%1,           Davide%Quaranta%NULL%1,           Enzo%Ricci%NULL%1,           Serenella%Servidei%NULL%1,           Gabriella%Silvestri%NULL%1,           Simone%Bellavia%NULL%1,           Sara%Bortolani%NULL%1,           Francesco%Bove%NULL%1,           Riccardo%Di Iorio%NULL%1,           Andrea%Di Paolantonio%NULL%1,           Danilo%Genovese%NULL%1,           Tamara%Ialongo%NULL%1,           Maria Rita%Lo Monaco%NULL%1,           Jessica%Marotta%NULL%1,           Agata Katia%Patanella%NULL%1,           Alessia%Perna%NULL%1,           Martina%Petracca%NULL%1,           Giorgia%Presicce%NULL%1,           Vittorio%Riso%NULL%1,           Eleonora%Rollo%NULL%1,           Angela%Romano%NULL%1,           Marina%Romozzi%NULL%1,           Cristina%Sancricca%NULL%1,           Irene%Scala%NULL%1,           Gregorio%Spagni%NULL%1,           Marcella%Solito%NULL%1,           Luca%Tricoli%NULL%1,           Paola%Zinzi%NULL%1,           Paolo%Calabresi%NULL%1,           Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Accogli%M.%coreGivesNoEmail%1,         Barone%R.%coreGivesNoEmail%1,         Capozzo%R.%coreGivesNoEmail%1,         Logroscino%G.%coreGivesNoEmail%1,         Musio%M.%coreGivesNoEmail%1,         Zoccolella%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,           Giuseppe%Battaglia%NULL%2,           Giuseppe%Battaglia%NULL%0,           Valerio%Giustino%NULL%1,           Andrea%Gagliardo%NULL%1,           Michele%D’Aleo%NULL%1,           Ottavio%Giannini%NULL%1,           Antonio%Palma%NULL%1,           Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,           Rubén%López-Bueno%rlopezbu@unizar.es%1,           Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,           Roksana%Zauder%NULL%1,           Maria%Skalska%NULL%1,           Joanna%Jastrzębska%NULL%1,           Zbigniew%Jastrzębski%NULL%1,           Felipe B%Schuch%NULL%1,           Igor%Grabovac%NULL%1,           Mark A%Tully%NULL%1,           Lee%Smith%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1134,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1097,7 +1163,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1126,7 +1192,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1155,7 +1221,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1184,7 +1250,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1213,7 +1279,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1242,7 +1308,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1271,7 +1337,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1300,7 +1366,7 @@
         <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1329,7 +1395,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1358,7 +1424,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/108.xlsx
+++ b/Covid_19_Dataset_and_References/References/108.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="219">
   <si>
     <t>Doi</t>
   </si>
@@ -735,6 +735,128 @@
   </si>
   <si>
     <t>[Guillermo F%López-Sánchez%gfls@um.es%1,           Rubén%López-Bueno%rlopezbu@unizar.es%1,           Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,           Roksana%Zauder%NULL%1,           Maria%Skalska%NULL%1,           Joanna%Jastrzębska%NULL%1,           Zbigniew%Jastrzębski%NULL%1,           Felipe B%Schuch%NULL%1,           Igor%Grabovac%NULL%1,           Mark A%Tully%NULL%1,           Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,            H Bart%van der Worp%NULL%2,            H Bart%van der Worp%NULL%0,            Valeria%Caso%NULL%1,            Charlotte%Cordonnier%NULL%1,            Daniel%Strbian%NULL%2,            Daniel%Strbian%NULL%0,            George%Ntaios%NULL%1,            Peter D%Schellinger%NULL%1,            Else Charlotte%Sandset%NULL%1,            NULL%NULL%NULL%0,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,            Clare L.%Gillies%NULL%1,            Francesco%Zaccardi%NULL%0,            Briana%Coles%NULL%1,            Melanie J.%Davies%NULL%1,            Samuel%Seidu%NULL%1,            Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Anxiety, depression and reduction of quality of life (QoL) are common in people with multiple sclerosis (pwMS).
+ Fear of getting sick from COVID-19, government’s lockdown and the imposed social distancing might have had an impact on psychological distress and QoL.
+Objectives
+The aim of our study was to investigate anxiety, depression and QoL changes in pwMS during SARS-CoV-2 outbreak and lockdown in Italy.
+Methods
+67 pwMS with a previous (less than 6 months) neuropsychological evaluation before SARS-CoV-2 outbreak (T0) were re-evaluated at the time of the outbreak and lockdown in Italy (T1).
+ They underwent a clinical and neurological evaluation and completed the State-Trait Anxiety Inventory (STAI-Y1), the Beck Depression Inventory second edition (BDI-II), and Multiple Sclerosis Quality of Life-54 (MsQoL-54) at T0 and T1. Benjamini–Hochberg procedure was applied to control the false discovery rate.
+Results
+BDI-II and STAI-Y1 scores did not change between T0 and T1. At T1, MsQoL-54 scores were higher on the satisfaction with sexual life and the social function subscales, and lower on the limitation due to emotional problems subscale.
+Conclusions
+This is the first study that evaluated mood and QoL levels before and during the lockdown due to COVID-19 pandemic in pwMS.
+ No worsening of anxiety and depression levels was found.
+ Contrariwise some improvements were noted on QoL, the most reliable regarding the sexual satisfaction and the social function.
+</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,            Manuela%Altieri%NULL%1,            Alvino%Bisecco%NULL%1,            Alessandro%d’Ambrosio%NULL%1,            Renato%Docimo%NULL%1,            Daniela%Buonanno%NULL%1,            Federica%Matrone%NULL%1,            Federica%Giuliano%NULL%1,            Gioacchino%Tedeschi%NULL%1,            Gabriella%Santangelo%NULL%1,            Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,            Hang%Li%NULL%1,            David%Kung%NULL%1,            Marc%Fisher%NULL%1,            Ying%Shen%NULL%1,            Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+To report the understanding and decision-making of neuroimmunologists and their treatment of patients with multiple sclerosis (MS) during the early stages of the SARS-CoV-2 (COVID-19) outbreak.
+Methods
+A survey instrument was designed and distributed online to neurologists in April 2020.
+Results
+There were 250 respondents (response rate 21.8%).
+ 243 saw &amp;gt;  = 10 MS patients in the prior 6 months (average 197 patients) and were analyzed further (92% USA, 8% Canada; average practice duration 16 years; 5% rural, 17% small city, 38% large city, 40% highly urbanized).
+ Patient volume dropped an average of 79% (53–11 per month).
+ 23% were aware of patients self-discontinuing a DMT due to fear of COVID-19 with 43% estimated to be doing so against medical advice.
+ 65% of respondents reported deferring &amp;gt;  = 1 doses of a DMT (49%), changing the dosing interval (34%), changing to home infusions (20%), switching a DMT (9%), and discontinuing DMTs altogether (8%) as a result of COVID-19. Changes in DMTs were most common with the high-efficacy therapies alemtuzumab, cladribine, ocrelizumab, rituximab, and natalizumab.
+ 35% made no changes to DMT prescribing.
+ 98% expressed worry about their patients contracting COVID-19 and 78% expressed the same degree of worry about themselves.
+  &amp;gt; 50% believed high-efficacy DMTs prolong viral shedding of SARS-CoV-2 and that B-cell therapies might prevent protective vaccine effects.
+ Accelerated pace of telemedicine and practice model changes were identified as major shifts in practice.
+Conclusions
+Reported prescribing changes and practice disruptions due to COVID-19 may be temporary but could have a lasting influence on MS care.
+Electronic supplementary material
+The online version of this article (10.1007/s00415-020-10045-9) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,            Shawheen%Rezaei%NULL%2,            Shawheen%Rezaei%NULL%0,            Nicholas%Alakel%NULL%1,            Brittany%Gazdag%NULL%1,            Aditya Ravi%Kumar%NULL%1,            Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,            Jevto%Erakovic%NULL%1,            Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,            Marina%Malobabic%NULL%1,            Vuk%Milosevic%NULL%1,            Jelena%Stojanov%NULL%1,            Slobodan%Vojinovic%NULL%1,            Goran%Stanojevic%NULL%1,            Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,            Enrico%Di Stasio%NULL%1,            Guido%Primiano%NULL%1,            Delfina%Janiri%NULL%1,            Marco%Luigetti%NULL%1,            Giovanni%Frisullo%NULL%1,            Catello%Vollono%NULL%1,            Matteo%Lucchini%NULL%1,            Valerio%Brunetti%NULL%1,            Mauro%Monforte%NULL%1,            Valeria%Guglielmi%NULL%1,            Giacomo%Della Marca%NULL%1,            Amelia%Evoli%NULL%1,            Camillo%Marra%NULL%1,            Massimiliano%Mirabella%NULL%1,            Davide%Quaranta%NULL%1,            Enzo%Ricci%NULL%1,            Serenella%Servidei%NULL%1,            Gabriella%Silvestri%NULL%1,            Simone%Bellavia%NULL%1,            Sara%Bortolani%NULL%1,            Francesco%Bove%NULL%1,            Riccardo%Di Iorio%NULL%1,            Andrea%Di Paolantonio%NULL%1,            Danilo%Genovese%NULL%1,            Tamara%Ialongo%NULL%1,            Maria Rita%Lo Monaco%NULL%1,            Jessica%Marotta%NULL%1,            Agata Katia%Patanella%NULL%1,            Alessia%Perna%NULL%1,            Martina%Petracca%NULL%1,            Giorgia%Presicce%NULL%1,            Vittorio%Riso%NULL%1,            Eleonora%Rollo%NULL%1,            Angela%Romano%NULL%1,            Marina%Romozzi%NULL%1,            Cristina%Sancricca%NULL%1,            Irene%Scala%NULL%1,            Gregorio%Spagni%NULL%1,            Marcella%Solito%NULL%1,            Luca%Tricoli%NULL%1,            Paola%Zinzi%NULL%1,            Paolo%Calabresi%NULL%1,            Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Accogli%M.%coreGivesNoEmail%1,          Barone%R.%coreGivesNoEmail%1,          Capozzo%R.%coreGivesNoEmail%1,          Logroscino%G.%coreGivesNoEmail%1,          Musio%M.%coreGivesNoEmail%1,          Zoccolella%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Quarantine was the measure taken by governments to control the rapid spread of COVID-19. This restriction resulted in a sudden change in people’s lifestyle, leading to an increase in sedentary behavior and a related decrease in the practice of physical activity (PA).
+ However, in neuromuscular diseases patients need to perform regular PA to counteract the negative consequences of the disease.
+ Hence, the aim of this study was to estimate the levels of PA, measured as energy expenditure (MET–minute/week), among patients with neuromuscular disease (NMD) before and during the last week of quarantine.
+Methods
+A total of 268 Italian subjects, living in Sicily, completed an adapted version of the IPAQ-SF.
+ Participants comprised 149 NMD, enrolled at the Neuromuscular Clinic of Palermo and 119 healthy subjects (control group).
+ The SF-12 questionnaire was also administered to NMD.
+ The Mann–Whitney U and the Kruskal–Wallis rank-sum tests were used for statistical analyses.
+Results
+We observed a significant decrease of the total weekly PA level during COVID-19 quarantine in both patients and controls.
+ Moreover, a significant difference in the total weekly PA level was found depending on the presence of neuromuscular disease, impaired walking, gender and BMI.
+ Finally, we found a correlation between SF-12 scores and the entity of the reduction of PA level during quarantine, thus confirming a relevant association with the quality of life in NMD.
+Conclusion
+Our study confirmed that COVID-19 quarantine has affected the practice of PA among both NMD and healthy controls.
+</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,            Giuseppe%Battaglia%NULL%2,            Giuseppe%Battaglia%NULL%0,            Valerio%Giustino%NULL%1,            Andrea%Gagliardo%NULL%1,            Michele%D’Aleo%NULL%1,            Ottavio%Giannini%NULL%1,            Antonio%Palma%NULL%1,            Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,            Rubén%López-Bueno%rlopezbu@unizar.es%1,            Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,            Roksana%Zauder%NULL%1,            Maria%Skalska%NULL%1,            Joanna%Jastrzębska%NULL%1,            Zbigniew%Jastrzębski%NULL%1,            Felipe B%Schuch%NULL%1,            Igor%Grabovac%NULL%1,            Mark A%Tully%NULL%1,            Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,             H Bart%van der Worp%NULL%2,             H Bart%van der Worp%NULL%0,             Valeria%Caso%NULL%1,             Charlotte%Cordonnier%NULL%1,             Daniel%Strbian%NULL%2,             Daniel%Strbian%NULL%0,             George%Ntaios%NULL%1,             Peter D%Schellinger%NULL%1,             Else Charlotte%Sandset%NULL%1,             NULL%NULL%NULL%0,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,             Clare L.%Gillies%NULL%1,             Francesco%Zaccardi%NULL%0,             Briana%Coles%NULL%1,             Melanie J.%Davies%NULL%1,             Samuel%Seidu%NULL%1,             Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,             Manuela%Altieri%NULL%1,             Alvino%Bisecco%NULL%1,             Alessandro%d’Ambrosio%NULL%1,             Renato%Docimo%NULL%1,             Daniela%Buonanno%NULL%1,             Federica%Matrone%NULL%1,             Federica%Giuliano%NULL%1,             Gioacchino%Tedeschi%NULL%1,             Gabriella%Santangelo%NULL%1,             Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,             Hang%Li%NULL%1,             David%Kung%NULL%1,             Marc%Fisher%NULL%1,             Ying%Shen%NULL%1,             Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,             Shawheen%Rezaei%NULL%2,             Shawheen%Rezaei%NULL%0,             Nicholas%Alakel%NULL%1,             Brittany%Gazdag%NULL%1,             Aditya Ravi%Kumar%NULL%1,             Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,             Jevto%Erakovic%NULL%1,             Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,             Marina%Malobabic%NULL%1,             Vuk%Milosevic%NULL%1,             Jelena%Stojanov%NULL%1,             Slobodan%Vojinovic%NULL%1,             Goran%Stanojevic%NULL%1,             Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,             Enrico%Di Stasio%NULL%1,             Guido%Primiano%NULL%1,             Delfina%Janiri%NULL%1,             Marco%Luigetti%NULL%1,             Giovanni%Frisullo%NULL%1,             Catello%Vollono%NULL%1,             Matteo%Lucchini%NULL%1,             Valerio%Brunetti%NULL%1,             Mauro%Monforte%NULL%1,             Valeria%Guglielmi%NULL%1,             Giacomo%Della Marca%NULL%1,             Amelia%Evoli%NULL%1,             Camillo%Marra%NULL%1,             Massimiliano%Mirabella%NULL%1,             Davide%Quaranta%NULL%1,             Enzo%Ricci%NULL%1,             Serenella%Servidei%NULL%1,             Gabriella%Silvestri%NULL%1,             Simone%Bellavia%NULL%1,             Sara%Bortolani%NULL%1,             Francesco%Bove%NULL%1,             Riccardo%Di Iorio%NULL%1,             Andrea%Di Paolantonio%NULL%1,             Danilo%Genovese%NULL%1,             Tamara%Ialongo%NULL%1,             Maria Rita%Lo Monaco%NULL%1,             Jessica%Marotta%NULL%1,             Agata Katia%Patanella%NULL%1,             Alessia%Perna%NULL%1,             Martina%Petracca%NULL%1,             Giorgia%Presicce%NULL%1,             Vittorio%Riso%NULL%1,             Eleonora%Rollo%NULL%1,             Angela%Romano%NULL%1,             Marina%Romozzi%NULL%1,             Cristina%Sancricca%NULL%1,             Irene%Scala%NULL%1,             Gregorio%Spagni%NULL%1,             Marcella%Solito%NULL%1,             Luca%Tricoli%NULL%1,             Paola%Zinzi%NULL%1,             Paolo%Calabresi%NULL%1,             Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Accogli%M.%coreGivesNoEmail%1,           Barone%R.%coreGivesNoEmail%1,           Capozzo%R.%coreGivesNoEmail%1,           Logroscino%G.%coreGivesNoEmail%1,           Musio%M.%coreGivesNoEmail%1,           Zoccolella%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,             Giuseppe%Battaglia%NULL%2,             Giuseppe%Battaglia%NULL%0,             Valerio%Giustino%NULL%1,             Andrea%Gagliardo%NULL%1,             Michele%D’Aleo%NULL%1,             Ottavio%Giannini%NULL%1,             Antonio%Palma%NULL%1,             Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,             Rubén%López-Bueno%rlopezbu@unizar.es%1,             Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,             Roksana%Zauder%NULL%1,             Maria%Skalska%NULL%1,             Joanna%Jastrzębska%NULL%1,             Zbigniew%Jastrzębski%NULL%1,             Felipe B%Schuch%NULL%1,             Igor%Grabovac%NULL%1,             Mark A%Tully%NULL%1,             Lee%Smith%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1256,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1163,7 +1285,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1189,10 +1311,10 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1221,7 +1343,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1247,10 +1369,10 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1279,7 +1401,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1308,7 +1430,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1337,7 +1459,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1366,7 +1488,7 @@
         <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1392,10 +1514,10 @@
         <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="E11" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1424,7 +1546,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/108.xlsx
+++ b/Covid_19_Dataset_and_References/References/108.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="230">
   <si>
     <t>Doi</t>
   </si>
@@ -857,6 +857,39 @@
   </si>
   <si>
     <t>[Guillermo F%López-Sánchez%gfls@um.es%1,             Rubén%López-Bueno%rlopezbu@unizar.es%1,             Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,             Roksana%Zauder%NULL%1,             Maria%Skalska%NULL%1,             Joanna%Jastrzębska%NULL%1,             Zbigniew%Jastrzębski%NULL%1,             Felipe B%Schuch%NULL%1,             Igor%Grabovac%NULL%1,             Mark A%Tully%NULL%1,             Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,              H Bart%van der Worp%NULL%2,              H Bart%van der Worp%NULL%0,              Valeria%Caso%NULL%1,              Charlotte%Cordonnier%NULL%1,              Daniel%Strbian%NULL%2,              Daniel%Strbian%NULL%0,              George%Ntaios%NULL%1,              Peter D%Schellinger%NULL%1,              Else Charlotte%Sandset%NULL%1,              NULL%NULL%NULL%0,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,              Clare L.%Gillies%NULL%1,              Francesco%Zaccardi%NULL%0,              Briana%Coles%NULL%1,              Melanie J.%Davies%NULL%1,              Samuel%Seidu%NULL%1,              Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,              Manuela%Altieri%NULL%1,              Alvino%Bisecco%NULL%1,              Alessandro%d’Ambrosio%NULL%1,              Renato%Docimo%NULL%1,              Daniela%Buonanno%NULL%1,              Federica%Matrone%NULL%1,              Federica%Giuliano%NULL%1,              Gioacchino%Tedeschi%NULL%1,              Gabriella%Santangelo%NULL%1,              Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,              Hang%Li%NULL%1,              David%Kung%NULL%1,              Marc%Fisher%NULL%1,              Ying%Shen%NULL%1,              Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,              Shawheen%Rezaei%NULL%2,              Shawheen%Rezaei%NULL%0,              Nicholas%Alakel%NULL%1,              Brittany%Gazdag%NULL%1,              Aditya Ravi%Kumar%NULL%1,              Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,              Jevto%Erakovic%NULL%1,              Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,              Marina%Malobabic%NULL%1,              Vuk%Milosevic%NULL%1,              Jelena%Stojanov%NULL%1,              Slobodan%Vojinovic%NULL%1,              Goran%Stanojevic%NULL%1,              Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,              Enrico%Di Stasio%NULL%1,              Guido%Primiano%NULL%1,              Delfina%Janiri%NULL%1,              Marco%Luigetti%NULL%1,              Giovanni%Frisullo%NULL%1,              Catello%Vollono%NULL%1,              Matteo%Lucchini%NULL%1,              Valerio%Brunetti%NULL%1,              Mauro%Monforte%NULL%1,              Valeria%Guglielmi%NULL%1,              Giacomo%Della Marca%NULL%1,              Amelia%Evoli%NULL%1,              Camillo%Marra%NULL%1,              Massimiliano%Mirabella%NULL%1,              Davide%Quaranta%NULL%1,              Enzo%Ricci%NULL%1,              Serenella%Servidei%NULL%1,              Gabriella%Silvestri%NULL%1,              Simone%Bellavia%NULL%1,              Sara%Bortolani%NULL%1,              Francesco%Bove%NULL%1,              Riccardo%Di Iorio%NULL%1,              Andrea%Di Paolantonio%NULL%1,              Danilo%Genovese%NULL%1,              Tamara%Ialongo%NULL%1,              Maria Rita%Lo Monaco%NULL%1,              Jessica%Marotta%NULL%1,              Agata Katia%Patanella%NULL%1,              Alessia%Perna%NULL%1,              Martina%Petracca%NULL%1,              Giorgia%Presicce%NULL%1,              Vittorio%Riso%NULL%1,              Eleonora%Rollo%NULL%1,              Angela%Romano%NULL%1,              Marina%Romozzi%NULL%1,              Cristina%Sancricca%NULL%1,              Irene%Scala%NULL%1,              Gregorio%Spagni%NULL%1,              Marcella%Solito%NULL%1,              Luca%Tricoli%NULL%1,              Paola%Zinzi%NULL%1,              Paolo%Calabresi%NULL%1,              Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Accogli%M.%coreGivesNoEmail%1,            Barone%R.%coreGivesNoEmail%1,            Capozzo%R.%coreGivesNoEmail%1,            Logroscino%G.%coreGivesNoEmail%1,            Musio%M.%coreGivesNoEmail%1,            Zoccolella%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,              Giuseppe%Battaglia%NULL%2,              Giuseppe%Battaglia%NULL%0,              Valerio%Giustino%NULL%1,              Andrea%Gagliardo%NULL%1,              Michele%D’Aleo%NULL%1,              Ottavio%Giannini%NULL%1,              Antonio%Palma%NULL%1,              Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,              Rubén%López-Bueno%rlopezbu@unizar.es%1,              Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,              Roksana%Zauder%NULL%1,              Maria%Skalska%NULL%1,              Joanna%Jastrzębska%NULL%1,              Zbigniew%Jastrzębski%NULL%1,              Felipe B%Schuch%NULL%1,              Igor%Grabovac%NULL%1,              Mark A%Tully%NULL%1,              Lee%Smith%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1289,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1285,7 +1318,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1314,7 +1347,7 @@
         <v>196</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1343,7 +1376,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1372,7 +1405,7 @@
         <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1401,7 +1434,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1430,7 +1463,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1459,7 +1492,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1488,7 +1521,7 @@
         <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1517,7 +1550,7 @@
         <v>205</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1546,7 +1579,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/108.xlsx
+++ b/Covid_19_Dataset_and_References/References/108.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="241">
   <si>
     <t>Doi</t>
   </si>
@@ -890,6 +890,39 @@
   </si>
   <si>
     <t>[Guillermo F%López-Sánchez%gfls@um.es%1,              Rubén%López-Bueno%rlopezbu@unizar.es%1,              Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,              Roksana%Zauder%NULL%1,              Maria%Skalska%NULL%1,              Joanna%Jastrzębska%NULL%1,              Zbigniew%Jastrzębski%NULL%1,              Felipe B%Schuch%NULL%1,              Igor%Grabovac%NULL%1,              Mark A%Tully%NULL%1,              Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,               H Bart%van der Worp%NULL%2,               H Bart%van der Worp%NULL%0,               Valeria%Caso%NULL%1,               Charlotte%Cordonnier%NULL%1,               Daniel%Strbian%NULL%2,               Daniel%Strbian%NULL%0,               George%Ntaios%NULL%1,               Peter D%Schellinger%NULL%1,               Else Charlotte%Sandset%NULL%1,               NULL%NULL%NULL%0,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,               Clare L.%Gillies%NULL%1,               Francesco%Zaccardi%NULL%0,               Briana%Coles%NULL%1,               Melanie J.%Davies%NULL%1,               Samuel%Seidu%NULL%1,               Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,               Manuela%Altieri%NULL%1,               Alvino%Bisecco%NULL%1,               Alessandro%d’Ambrosio%NULL%1,               Renato%Docimo%NULL%1,               Daniela%Buonanno%NULL%1,               Federica%Matrone%NULL%1,               Federica%Giuliano%NULL%1,               Gioacchino%Tedeschi%NULL%1,               Gabriella%Santangelo%NULL%1,               Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,               Hang%Li%NULL%1,               David%Kung%NULL%1,               Marc%Fisher%NULL%1,               Ying%Shen%NULL%1,               Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,               Shawheen%Rezaei%NULL%2,               Shawheen%Rezaei%NULL%0,               Nicholas%Alakel%NULL%1,               Brittany%Gazdag%NULL%1,               Aditya Ravi%Kumar%NULL%1,               Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,               Jevto%Erakovic%NULL%1,               Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,               Marina%Malobabic%NULL%1,               Vuk%Milosevic%NULL%1,               Jelena%Stojanov%NULL%1,               Slobodan%Vojinovic%NULL%1,               Goran%Stanojevic%NULL%1,               Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,               Enrico%Di Stasio%NULL%1,               Guido%Primiano%NULL%1,               Delfina%Janiri%NULL%1,               Marco%Luigetti%NULL%1,               Giovanni%Frisullo%NULL%1,               Catello%Vollono%NULL%1,               Matteo%Lucchini%NULL%1,               Valerio%Brunetti%NULL%1,               Mauro%Monforte%NULL%1,               Valeria%Guglielmi%NULL%1,               Giacomo%Della Marca%NULL%1,               Amelia%Evoli%NULL%1,               Camillo%Marra%NULL%1,               Massimiliano%Mirabella%NULL%1,               Davide%Quaranta%NULL%1,               Enzo%Ricci%NULL%1,               Serenella%Servidei%NULL%1,               Gabriella%Silvestri%NULL%1,               Simone%Bellavia%NULL%1,               Sara%Bortolani%NULL%1,               Francesco%Bove%NULL%1,               Riccardo%Di Iorio%NULL%1,               Andrea%Di Paolantonio%NULL%1,               Danilo%Genovese%NULL%1,               Tamara%Ialongo%NULL%1,               Maria Rita%Lo Monaco%NULL%1,               Jessica%Marotta%NULL%1,               Agata Katia%Patanella%NULL%1,               Alessia%Perna%NULL%1,               Martina%Petracca%NULL%1,               Giorgia%Presicce%NULL%1,               Vittorio%Riso%NULL%1,               Eleonora%Rollo%NULL%1,               Angela%Romano%NULL%1,               Marina%Romozzi%NULL%1,               Cristina%Sancricca%NULL%1,               Irene%Scala%NULL%1,               Gregorio%Spagni%NULL%1,               Marcella%Solito%NULL%1,               Luca%Tricoli%NULL%1,               Paola%Zinzi%NULL%1,               Paolo%Calabresi%NULL%1,               Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Accogli%M.%coreGivesNoEmail%1,             Barone%R.%coreGivesNoEmail%1,             Capozzo%R.%coreGivesNoEmail%1,             Logroscino%G.%coreGivesNoEmail%1,             Musio%M.%coreGivesNoEmail%1,             Zoccolella%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,               Giuseppe%Battaglia%NULL%2,               Giuseppe%Battaglia%NULL%0,               Valerio%Giustino%NULL%1,               Andrea%Gagliardo%NULL%1,               Michele%D’Aleo%NULL%1,               Ottavio%Giannini%NULL%1,               Antonio%Palma%NULL%1,               Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,               Rubén%López-Bueno%rlopezbu@unizar.es%1,               Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,               Roksana%Zauder%NULL%1,               Maria%Skalska%NULL%1,               Joanna%Jastrzębska%NULL%1,               Zbigniew%Jastrzębski%NULL%1,               Felipe B%Schuch%NULL%1,               Igor%Grabovac%NULL%1,               Mark A%Tully%NULL%1,               Lee%Smith%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1322,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1318,7 +1351,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1347,7 +1380,7 @@
         <v>196</v>
       </c>
       <c r="E4" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1376,7 +1409,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1405,7 +1438,7 @@
         <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1434,7 +1467,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1463,7 +1496,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1492,7 +1525,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1521,7 +1554,7 @@
         <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1550,7 +1583,7 @@
         <v>205</v>
       </c>
       <c r="E11" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1579,7 +1612,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/108.xlsx
+++ b/Covid_19_Dataset_and_References/References/108.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="263">
   <si>
     <t>Doi</t>
   </si>
@@ -923,6 +923,72 @@
   </si>
   <si>
     <t>[Guillermo F%López-Sánchez%gfls@um.es%1,               Rubén%López-Bueno%rlopezbu@unizar.es%1,               Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,               Roksana%Zauder%NULL%1,               Maria%Skalska%NULL%1,               Joanna%Jastrzębska%NULL%1,               Zbigniew%Jastrzębski%NULL%1,               Felipe B%Schuch%NULL%1,               Igor%Grabovac%NULL%1,               Mark A%Tully%NULL%1,               Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,                H Bart%van der Worp%NULL%2,                H Bart%van der Worp%NULL%0,                Valeria%Caso%NULL%1,                Charlotte%Cordonnier%NULL%1,                Daniel%Strbian%NULL%2,                Daniel%Strbian%NULL%0,                George%Ntaios%NULL%1,                Peter D%Schellinger%NULL%1,                Else Charlotte%Sandset%NULL%1,                NULL%NULL%NULL%0,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,                Clare L.%Gillies%NULL%1,                Francesco%Zaccardi%NULL%0,                Briana%Coles%NULL%1,                Melanie J.%Davies%NULL%1,                Samuel%Seidu%NULL%1,                Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,                Manuela%Altieri%NULL%1,                Alvino%Bisecco%NULL%1,                Alessandro%d’Ambrosio%NULL%1,                Renato%Docimo%NULL%1,                Daniela%Buonanno%NULL%1,                Federica%Matrone%NULL%1,                Federica%Giuliano%NULL%1,                Gioacchino%Tedeschi%NULL%1,                Gabriella%Santangelo%NULL%1,                Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,                Hang%Li%NULL%1,                David%Kung%NULL%1,                Marc%Fisher%NULL%1,                Ying%Shen%NULL%1,                Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,                Shawheen%Rezaei%NULL%2,                Shawheen%Rezaei%NULL%0,                Nicholas%Alakel%NULL%1,                Brittany%Gazdag%NULL%1,                Aditya Ravi%Kumar%NULL%1,                Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,                Jevto%Erakovic%NULL%1,                Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,                Marina%Malobabic%NULL%1,                Vuk%Milosevic%NULL%1,                Jelena%Stojanov%NULL%1,                Slobodan%Vojinovic%NULL%1,                Goran%Stanojevic%NULL%1,                Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,                Enrico%Di Stasio%NULL%1,                Guido%Primiano%NULL%1,                Delfina%Janiri%NULL%1,                Marco%Luigetti%NULL%1,                Giovanni%Frisullo%NULL%1,                Catello%Vollono%NULL%1,                Matteo%Lucchini%NULL%1,                Valerio%Brunetti%NULL%1,                Mauro%Monforte%NULL%1,                Valeria%Guglielmi%NULL%1,                Giacomo%Della Marca%NULL%1,                Amelia%Evoli%NULL%1,                Camillo%Marra%NULL%1,                Massimiliano%Mirabella%NULL%1,                Davide%Quaranta%NULL%1,                Enzo%Ricci%NULL%1,                Serenella%Servidei%NULL%1,                Gabriella%Silvestri%NULL%1,                Simone%Bellavia%NULL%1,                Sara%Bortolani%NULL%1,                Francesco%Bove%NULL%1,                Riccardo%Di Iorio%NULL%1,                Andrea%Di Paolantonio%NULL%1,                Danilo%Genovese%NULL%1,                Tamara%Ialongo%NULL%1,                Maria Rita%Lo Monaco%NULL%1,                Jessica%Marotta%NULL%1,                Agata Katia%Patanella%NULL%1,                Alessia%Perna%NULL%1,                Martina%Petracca%NULL%1,                Giorgia%Presicce%NULL%1,                Vittorio%Riso%NULL%1,                Eleonora%Rollo%NULL%1,                Angela%Romano%NULL%1,                Marina%Romozzi%NULL%1,                Cristina%Sancricca%NULL%1,                Irene%Scala%NULL%1,                Gregorio%Spagni%NULL%1,                Marcella%Solito%NULL%1,                Luca%Tricoli%NULL%1,                Paola%Zinzi%NULL%1,                Paolo%Calabresi%NULL%1,                Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Accogli%M.%coreGivesNoEmail%1,              Barone%R.%coreGivesNoEmail%1,              Capozzo%R.%coreGivesNoEmail%1,              Logroscino%G.%coreGivesNoEmail%1,              Musio%M.%coreGivesNoEmail%1,              Zoccolella%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,                Giuseppe%Battaglia%NULL%2,                Giuseppe%Battaglia%NULL%0,                Valerio%Giustino%NULL%1,                Andrea%Gagliardo%NULL%1,                Michele%D’Aleo%NULL%1,                Ottavio%Giannini%NULL%1,                Antonio%Palma%NULL%1,                Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,                Rubén%López-Bueno%rlopezbu@unizar.es%1,                Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,                Roksana%Zauder%NULL%1,                Maria%Skalska%NULL%1,                Joanna%Jastrzębska%NULL%1,                Zbigniew%Jastrzębski%NULL%1,                Felipe B%Schuch%NULL%1,                Igor%Grabovac%NULL%1,                Mark A%Tully%NULL%1,                Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,                 H Bart%van der Worp%NULL%2,                 H Bart%van der Worp%NULL%0,                 Valeria%Caso%NULL%1,                 Charlotte%Cordonnier%NULL%1,                 Daniel%Strbian%NULL%2,                 Daniel%Strbian%NULL%0,                 George%Ntaios%NULL%1,                 Peter D%Schellinger%NULL%1,                 Else Charlotte%Sandset%NULL%1,                 NULL%NULL%NULL%0,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,                 Clare L.%Gillies%NULL%1,                 Francesco%Zaccardi%NULL%0,                 Briana%Coles%NULL%1,                 Melanie J.%Davies%NULL%1,                 Samuel%Seidu%NULL%1,                 Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,                 Manuela%Altieri%NULL%1,                 Alvino%Bisecco%NULL%1,                 Alessandro%d’Ambrosio%NULL%1,                 Renato%Docimo%NULL%1,                 Daniela%Buonanno%NULL%1,                 Federica%Matrone%NULL%1,                 Federica%Giuliano%NULL%1,                 Gioacchino%Tedeschi%NULL%1,                 Gabriella%Santangelo%NULL%1,                 Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,                 Hang%Li%NULL%1,                 David%Kung%NULL%1,                 Marc%Fisher%NULL%1,                 Ying%Shen%NULL%1,                 Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,                 Shawheen%Rezaei%NULL%2,                 Shawheen%Rezaei%NULL%0,                 Nicholas%Alakel%NULL%1,                 Brittany%Gazdag%NULL%1,                 Aditya Ravi%Kumar%NULL%1,                 Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,                 Jevto%Erakovic%NULL%1,                 Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,                 Marina%Malobabic%NULL%1,                 Vuk%Milosevic%NULL%1,                 Jelena%Stojanov%NULL%1,                 Slobodan%Vojinovic%NULL%1,                 Goran%Stanojevic%NULL%1,                 Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,                 Enrico%Di Stasio%NULL%1,                 Guido%Primiano%NULL%1,                 Delfina%Janiri%NULL%1,                 Marco%Luigetti%NULL%1,                 Giovanni%Frisullo%NULL%1,                 Catello%Vollono%NULL%1,                 Matteo%Lucchini%NULL%1,                 Valerio%Brunetti%NULL%1,                 Mauro%Monforte%NULL%1,                 Valeria%Guglielmi%NULL%1,                 Giacomo%Della Marca%NULL%1,                 Amelia%Evoli%NULL%1,                 Camillo%Marra%NULL%1,                 Massimiliano%Mirabella%NULL%1,                 Davide%Quaranta%NULL%1,                 Enzo%Ricci%NULL%1,                 Serenella%Servidei%NULL%1,                 Gabriella%Silvestri%NULL%1,                 Simone%Bellavia%NULL%1,                 Sara%Bortolani%NULL%1,                 Francesco%Bove%NULL%1,                 Riccardo%Di Iorio%NULL%1,                 Andrea%Di Paolantonio%NULL%1,                 Danilo%Genovese%NULL%1,                 Tamara%Ialongo%NULL%1,                 Maria Rita%Lo Monaco%NULL%1,                 Jessica%Marotta%NULL%1,                 Agata Katia%Patanella%NULL%1,                 Alessia%Perna%NULL%1,                 Martina%Petracca%NULL%1,                 Giorgia%Presicce%NULL%1,                 Vittorio%Riso%NULL%1,                 Eleonora%Rollo%NULL%1,                 Angela%Romano%NULL%1,                 Marina%Romozzi%NULL%1,                 Cristina%Sancricca%NULL%1,                 Irene%Scala%NULL%1,                 Gregorio%Spagni%NULL%1,                 Marcella%Solito%NULL%1,                 Luca%Tricoli%NULL%1,                 Paola%Zinzi%NULL%1,                 Paolo%Calabresi%NULL%1,                 Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Accogli%M.%coreGivesNoEmail%1,               Barone%R.%coreGivesNoEmail%1,               Capozzo%R.%coreGivesNoEmail%1,               Logroscino%G.%coreGivesNoEmail%1,               Musio%M.%coreGivesNoEmail%1,               Zoccolella%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,                 Giuseppe%Battaglia%NULL%2,                 Giuseppe%Battaglia%NULL%0,                 Valerio%Giustino%NULL%1,                 Andrea%Gagliardo%NULL%1,                 Michele%D’Aleo%NULL%1,                 Ottavio%Giannini%NULL%1,                 Antonio%Palma%NULL%1,                 Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,                 Rubén%López-Bueno%rlopezbu@unizar.es%1,                 Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,                 Roksana%Zauder%NULL%1,                 Maria%Skalska%NULL%1,                 Joanna%Jastrzębska%NULL%1,                 Zbigniew%Jastrzębski%NULL%1,                 Felipe B%Schuch%NULL%1,                 Igor%Grabovac%NULL%1,                 Mark A%Tully%NULL%1,                 Lee%Smith%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1388,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1351,7 +1417,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1380,7 +1446,7 @@
         <v>196</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1409,7 +1475,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1438,7 +1504,7 @@
         <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1467,7 +1533,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1496,7 +1562,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1525,7 +1591,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1554,7 +1620,7 @@
         <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1583,7 +1649,7 @@
         <v>205</v>
       </c>
       <c r="E11" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1612,7 +1678,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/108.xlsx
+++ b/Covid_19_Dataset_and_References/References/108.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="274">
   <si>
     <t>Doi</t>
   </si>
@@ -989,6 +989,39 @@
   </si>
   <si>
     <t>[Guillermo F%López-Sánchez%gfls@um.es%1,                 Rubén%López-Bueno%rlopezbu@unizar.es%1,                 Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,                 Roksana%Zauder%NULL%1,                 Maria%Skalska%NULL%1,                 Joanna%Jastrzębska%NULL%1,                 Zbigniew%Jastrzębski%NULL%1,                 Felipe B%Schuch%NULL%1,                 Igor%Grabovac%NULL%1,                 Mark A%Tully%NULL%1,                 Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,                  H Bart%van der Worp%NULL%2,                  H Bart%van der Worp%NULL%0,                  Valeria%Caso%NULL%1,                  Charlotte%Cordonnier%NULL%1,                  Daniel%Strbian%NULL%2,                  Daniel%Strbian%NULL%0,                  George%Ntaios%NULL%1,                  Peter D%Schellinger%NULL%1,                  Else Charlotte%Sandset%NULL%1,                  NULL%NULL%NULL%0,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,                  Clare L.%Gillies%NULL%1,                  Francesco%Zaccardi%NULL%0,                  Briana%Coles%NULL%1,                  Melanie J.%Davies%NULL%1,                  Samuel%Seidu%NULL%1,                  Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,                  Manuela%Altieri%NULL%1,                  Alvino%Bisecco%NULL%1,                  Alessandro%d’Ambrosio%NULL%1,                  Renato%Docimo%NULL%1,                  Daniela%Buonanno%NULL%1,                  Federica%Matrone%NULL%1,                  Federica%Giuliano%NULL%1,                  Gioacchino%Tedeschi%NULL%1,                  Gabriella%Santangelo%NULL%1,                  Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,                  Hang%Li%NULL%1,                  David%Kung%NULL%1,                  Marc%Fisher%NULL%1,                  Ying%Shen%NULL%1,                  Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,                  Shawheen%Rezaei%NULL%2,                  Shawheen%Rezaei%NULL%0,                  Nicholas%Alakel%NULL%1,                  Brittany%Gazdag%NULL%1,                  Aditya Ravi%Kumar%NULL%1,                  Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,                  Jevto%Erakovic%NULL%1,                  Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,                  Marina%Malobabic%NULL%1,                  Vuk%Milosevic%NULL%1,                  Jelena%Stojanov%NULL%1,                  Slobodan%Vojinovic%NULL%1,                  Goran%Stanojevic%NULL%1,                  Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,                  Enrico%Di Stasio%NULL%1,                  Guido%Primiano%NULL%1,                  Delfina%Janiri%NULL%1,                  Marco%Luigetti%NULL%1,                  Giovanni%Frisullo%NULL%1,                  Catello%Vollono%NULL%1,                  Matteo%Lucchini%NULL%1,                  Valerio%Brunetti%NULL%1,                  Mauro%Monforte%NULL%1,                  Valeria%Guglielmi%NULL%1,                  Giacomo%Della Marca%NULL%1,                  Amelia%Evoli%NULL%1,                  Camillo%Marra%NULL%1,                  Massimiliano%Mirabella%NULL%1,                  Davide%Quaranta%NULL%1,                  Enzo%Ricci%NULL%1,                  Serenella%Servidei%NULL%1,                  Gabriella%Silvestri%NULL%1,                  Simone%Bellavia%NULL%1,                  Sara%Bortolani%NULL%1,                  Francesco%Bove%NULL%1,                  Riccardo%Di Iorio%NULL%1,                  Andrea%Di Paolantonio%NULL%1,                  Danilo%Genovese%NULL%1,                  Tamara%Ialongo%NULL%1,                  Maria Rita%Lo Monaco%NULL%1,                  Jessica%Marotta%NULL%1,                  Agata Katia%Patanella%NULL%1,                  Alessia%Perna%NULL%1,                  Martina%Petracca%NULL%1,                  Giorgia%Presicce%NULL%1,                  Vittorio%Riso%NULL%1,                  Eleonora%Rollo%NULL%1,                  Angela%Romano%NULL%1,                  Marina%Romozzi%NULL%1,                  Cristina%Sancricca%NULL%1,                  Irene%Scala%NULL%1,                  Gregorio%Spagni%NULL%1,                  Marcella%Solito%NULL%1,                  Luca%Tricoli%NULL%1,                  Paola%Zinzi%NULL%1,                  Paolo%Calabresi%NULL%1,                  Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Accogli%M.%coreGivesNoEmail%1,                Barone%R.%coreGivesNoEmail%1,                Capozzo%R.%coreGivesNoEmail%1,                Logroscino%G.%coreGivesNoEmail%1,                Musio%M.%coreGivesNoEmail%1,                Zoccolella%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,                  Giuseppe%Battaglia%NULL%2,                  Giuseppe%Battaglia%NULL%0,                  Valerio%Giustino%NULL%1,                  Andrea%Gagliardo%NULL%1,                  Michele%D’Aleo%NULL%1,                  Ottavio%Giannini%NULL%1,                  Antonio%Palma%NULL%1,                  Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,                  Rubén%López-Bueno%rlopezbu@unizar.es%1,                  Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,                  Roksana%Zauder%NULL%1,                  Maria%Skalska%NULL%1,                  Joanna%Jastrzębska%NULL%1,                  Zbigniew%Jastrzębski%NULL%1,                  Felipe B%Schuch%NULL%1,                  Igor%Grabovac%NULL%1,                  Mark A%Tully%NULL%1,                  Lee%Smith%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1421,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1417,7 +1450,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1446,7 +1479,7 @@
         <v>196</v>
       </c>
       <c r="E4" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1475,7 +1508,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1504,7 +1537,7 @@
         <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1533,7 +1566,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1562,7 +1595,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1591,7 +1624,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1620,7 +1653,7 @@
         <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1649,7 +1682,7 @@
         <v>205</v>
       </c>
       <c r="E11" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1678,7 +1711,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/108.xlsx
+++ b/Covid_19_Dataset_and_References/References/108.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="289">
   <si>
     <t>Doi</t>
   </si>
@@ -1022,6 +1022,51 @@
   </si>
   <si>
     <t>[Guillermo F%López-Sánchez%gfls@um.es%1,                  Rubén%López-Bueno%rlopezbu@unizar.es%1,                  Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,                  Roksana%Zauder%NULL%1,                  Maria%Skalska%NULL%1,                  Joanna%Jastrzębska%NULL%1,                  Zbigniew%Jastrzębski%NULL%1,                  Felipe B%Schuch%NULL%1,                  Igor%Grabovac%NULL%1,                  Mark A%Tully%NULL%1,                  Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,                   H Bart%van der Worp%NULL%2,                   H Bart%van der Worp%NULL%0,                   Valeria%Caso%NULL%1,                   Charlotte%Cordonnier%NULL%1,                   Daniel%Strbian%NULL%2,                   Daniel%Strbian%NULL%0,                   George%Ntaios%NULL%1,                   Peter D%Schellinger%NULL%1,                   Else Charlotte%Sandset%NULL%1,                   NULL%NULL%NULL%0,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,                   Clare L.%Gillies%NULL%1,                   Francesco%Zaccardi%NULL%0,                   Briana%Coles%NULL%1,                   Melanie J.%Davies%NULL%1,                   Samuel%Seidu%NULL%1,                   Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,                   Manuela%Altieri%NULL%1,                   Alvino%Bisecco%NULL%1,                   Alessandro%d’Ambrosio%NULL%1,                   Renato%Docimo%NULL%1,                   Daniela%Buonanno%NULL%1,                   Federica%Matrone%NULL%1,                   Federica%Giuliano%NULL%1,                   Gioacchino%Tedeschi%NULL%1,                   Gabriella%Santangelo%NULL%1,                   Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,                   Hang%Li%NULL%1,                   David%Kung%NULL%1,                   Marc%Fisher%NULL%1,                   Ying%Shen%NULL%1,                   Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,                   Shawheen%Rezaei%NULL%2,                   Shawheen%Rezaei%NULL%0,                   Nicholas%Alakel%NULL%1,                   Brittany%Gazdag%NULL%1,                   Aditya Ravi%Kumar%NULL%1,                   Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,                   Jevto%Erakovic%NULL%1,                   Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,                   Marina%Malobabic%NULL%1,                   Vuk%Milosevic%NULL%1,                   Jelena%Stojanov%NULL%1,                   Slobodan%Vojinovic%NULL%1,                   Goran%Stanojevic%NULL%1,                   Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,                   Enrico%Di Stasio%NULL%1,                   Guido%Primiano%NULL%1,                   Delfina%Janiri%NULL%1,                   Marco%Luigetti%NULL%1,                   Giovanni%Frisullo%NULL%1,                   Catello%Vollono%NULL%1,                   Matteo%Lucchini%NULL%1,                   Valerio%Brunetti%NULL%1,                   Mauro%Monforte%NULL%1,                   Valeria%Guglielmi%NULL%1,                   Giacomo%Della Marca%NULL%1,                   Amelia%Evoli%NULL%1,                   Camillo%Marra%NULL%1,                   Massimiliano%Mirabella%NULL%1,                   Davide%Quaranta%NULL%1,                   Enzo%Ricci%NULL%1,                   Serenella%Servidei%NULL%1,                   Gabriella%Silvestri%NULL%1,                   Simone%Bellavia%NULL%1,                   Sara%Bortolani%NULL%1,                   Francesco%Bove%NULL%1,                   Riccardo%Di Iorio%NULL%1,                   Andrea%Di Paolantonio%NULL%1,                   Danilo%Genovese%NULL%1,                   Tamara%Ialongo%NULL%1,                   Maria Rita%Lo Monaco%NULL%1,                   Jessica%Marotta%NULL%1,                   Agata Katia%Patanella%NULL%1,                   Alessia%Perna%NULL%1,                   Martina%Petracca%NULL%1,                   Giorgia%Presicce%NULL%1,                   Vittorio%Riso%NULL%1,                   Eleonora%Rollo%NULL%1,                   Angela%Romano%NULL%1,                   Marina%Romozzi%NULL%1,                   Cristina%Sancricca%NULL%1,                   Irene%Scala%NULL%1,                   Gregorio%Spagni%NULL%1,                   Marcella%Solito%NULL%1,                   Luca%Tricoli%NULL%1,                   Paola%Zinzi%NULL%1,                   Paolo%Calabresi%NULL%1,                   Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Accogli%M.%coreGivesNoEmail%1,                 Barone%R.%coreGivesNoEmail%1,                 Capozzo%R.%coreGivesNoEmail%1,                 Logroscino%G.%coreGivesNoEmail%1,                 Musio%M.%coreGivesNoEmail%1,                 Zoccolella%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,                   Giuseppe%Battaglia%NULL%2,                   Giuseppe%Battaglia%NULL%0,                   Valerio%Giustino%NULL%1,                   Andrea%Gagliardo%NULL%1,                   Michele%D’Aleo%NULL%1,                   Ottavio%Giannini%NULL%1,                   Antonio%Palma%NULL%1,                   Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,                   Rubén%López-Bueno%rlopezbu@unizar.es%1,                   Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,                   Roksana%Zauder%NULL%1,                   Maria%Skalska%NULL%1,                   Joanna%Jastrzębska%NULL%1,                   Zbigniew%Jastrzębski%NULL%1,                   Felipe B%Schuch%NULL%1,                   Igor%Grabovac%NULL%1,                   Mark A%Tully%NULL%1,                   Lee%Smith%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1421,7 +1466,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1433,7 +1478,7 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>103</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
@@ -1450,7 +1495,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1462,7 +1507,7 @@
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>105</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4">
@@ -1479,7 +1524,7 @@
         <v>196</v>
       </c>
       <c r="E4" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1491,7 +1536,7 @@
         <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>107</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5">
@@ -1508,7 +1553,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1520,7 +1565,7 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6">
@@ -1537,7 +1582,7 @@
         <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1549,7 +1594,7 @@
         <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>107</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7">
@@ -1566,7 +1611,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1578,7 +1623,7 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8">
@@ -1595,7 +1640,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1607,7 +1652,7 @@
         <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9">
@@ -1624,7 +1669,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1636,7 +1681,7 @@
         <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10">
@@ -1653,7 +1698,7 @@
         <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1665,7 +1710,7 @@
         <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11">
@@ -1682,7 +1727,7 @@
         <v>205</v>
       </c>
       <c r="E11" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1694,7 +1739,7 @@
         <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12">
@@ -1711,7 +1756,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1723,7 +1768,7 @@
         <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/108.xlsx
+++ b/Covid_19_Dataset_and_References/References/108.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="300">
   <si>
     <t>Doi</t>
   </si>
@@ -1067,6 +1067,39 @@
   </si>
   <si>
     <t>[Guillermo F%López-Sánchez%gfls@um.es%1,                   Rubén%López-Bueno%rlopezbu@unizar.es%1,                   Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,                   Roksana%Zauder%NULL%1,                   Maria%Skalska%NULL%1,                   Joanna%Jastrzębska%NULL%1,                   Zbigniew%Jastrzębski%NULL%1,                   Felipe B%Schuch%NULL%1,                   Igor%Grabovac%NULL%1,                   Mark A%Tully%NULL%1,                   Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,                    H Bart%van der Worp%NULL%2,                    H Bart%van der Worp%NULL%0,                    Valeria%Caso%NULL%1,                    Charlotte%Cordonnier%NULL%1,                    Daniel%Strbian%NULL%2,                    Daniel%Strbian%NULL%0,                    George%Ntaios%NULL%1,                    Peter D%Schellinger%NULL%1,                    Else Charlotte%Sandset%NULL%1,                    NULL%NULL%NULL%0,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,                    Clare L.%Gillies%NULL%1,                    Francesco%Zaccardi%NULL%0,                    Briana%Coles%NULL%1,                    Melanie J.%Davies%NULL%1,                    Samuel%Seidu%NULL%1,                    Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,                    Manuela%Altieri%NULL%1,                    Alvino%Bisecco%NULL%1,                    Alessandro%d’Ambrosio%NULL%1,                    Renato%Docimo%NULL%1,                    Daniela%Buonanno%NULL%1,                    Federica%Matrone%NULL%1,                    Federica%Giuliano%NULL%1,                    Gioacchino%Tedeschi%NULL%1,                    Gabriella%Santangelo%NULL%1,                    Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,                    Hang%Li%NULL%1,                    David%Kung%NULL%1,                    Marc%Fisher%NULL%1,                    Ying%Shen%NULL%1,                    Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,                    Shawheen%Rezaei%NULL%2,                    Shawheen%Rezaei%NULL%0,                    Nicholas%Alakel%NULL%1,                    Brittany%Gazdag%NULL%1,                    Aditya Ravi%Kumar%NULL%1,                    Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,                    Jevto%Erakovic%NULL%1,                    Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,                    Marina%Malobabic%NULL%1,                    Vuk%Milosevic%NULL%1,                    Jelena%Stojanov%NULL%1,                    Slobodan%Vojinovic%NULL%1,                    Goran%Stanojevic%NULL%1,                    Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,                    Enrico%Di Stasio%NULL%1,                    Guido%Primiano%NULL%1,                    Delfina%Janiri%NULL%1,                    Marco%Luigetti%NULL%1,                    Giovanni%Frisullo%NULL%1,                    Catello%Vollono%NULL%1,                    Matteo%Lucchini%NULL%1,                    Valerio%Brunetti%NULL%1,                    Mauro%Monforte%NULL%1,                    Valeria%Guglielmi%NULL%1,                    Giacomo%Della Marca%NULL%1,                    Amelia%Evoli%NULL%1,                    Camillo%Marra%NULL%1,                    Massimiliano%Mirabella%NULL%1,                    Davide%Quaranta%NULL%1,                    Enzo%Ricci%NULL%1,                    Serenella%Servidei%NULL%1,                    Gabriella%Silvestri%NULL%1,                    Simone%Bellavia%NULL%1,                    Sara%Bortolani%NULL%1,                    Francesco%Bove%NULL%1,                    Riccardo%Di Iorio%NULL%1,                    Andrea%Di Paolantonio%NULL%1,                    Danilo%Genovese%NULL%1,                    Tamara%Ialongo%NULL%1,                    Maria Rita%Lo Monaco%NULL%1,                    Jessica%Marotta%NULL%1,                    Agata Katia%Patanella%NULL%1,                    Alessia%Perna%NULL%1,                    Martina%Petracca%NULL%1,                    Giorgia%Presicce%NULL%1,                    Vittorio%Riso%NULL%1,                    Eleonora%Rollo%NULL%1,                    Angela%Romano%NULL%1,                    Marina%Romozzi%NULL%1,                    Cristina%Sancricca%NULL%1,                    Irene%Scala%NULL%1,                    Gregorio%Spagni%NULL%1,                    Marcella%Solito%NULL%1,                    Luca%Tricoli%NULL%1,                    Paola%Zinzi%NULL%1,                    Paolo%Calabresi%NULL%1,                    Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Accogli%M.%coreGivesNoEmail%1,                  Barone%R.%coreGivesNoEmail%1,                  Capozzo%R.%coreGivesNoEmail%1,                  Logroscino%G.%coreGivesNoEmail%1,                  Musio%M.%coreGivesNoEmail%1,                  Zoccolella%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,                    Giuseppe%Battaglia%NULL%2,                    Giuseppe%Battaglia%NULL%0,                    Valerio%Giustino%NULL%1,                    Andrea%Gagliardo%NULL%1,                    Michele%D’Aleo%NULL%1,                    Ottavio%Giannini%NULL%1,                    Antonio%Palma%NULL%1,                    Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,                    Rubén%López-Bueno%rlopezbu@unizar.es%1,                    Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,                    Roksana%Zauder%NULL%1,                    Maria%Skalska%NULL%1,                    Joanna%Jastrzębska%NULL%1,                    Zbigniew%Jastrzębski%NULL%1,                    Felipe B%Schuch%NULL%1,                    Igor%Grabovac%NULL%1,                    Mark A%Tully%NULL%1,                    Lee%Smith%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1466,7 +1499,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1495,7 +1528,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1524,7 +1557,7 @@
         <v>196</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1553,7 +1586,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1582,7 +1615,7 @@
         <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1611,7 +1644,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1640,7 +1673,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1669,7 +1702,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1698,7 +1731,7 @@
         <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1727,7 +1760,7 @@
         <v>205</v>
       </c>
       <c r="E11" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1756,7 +1789,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/108.xlsx
+++ b/Covid_19_Dataset_and_References/References/108.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="356">
   <si>
     <t>Doi</t>
   </si>
@@ -1100,6 +1100,174 @@
   </si>
   <si>
     <t>[Guillermo F%López-Sánchez%gfls@um.es%1,                    Rubén%López-Bueno%rlopezbu@unizar.es%1,                    Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,                    Roksana%Zauder%NULL%1,                    Maria%Skalska%NULL%1,                    Joanna%Jastrzębska%NULL%1,                    Zbigniew%Jastrzębski%NULL%1,                    Felipe B%Schuch%NULL%1,                    Igor%Grabovac%NULL%1,                    Mark A%Tully%NULL%1,                    Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,                     H Bart%van der Worp%NULL%2,                     H Bart%van der Worp%NULL%0,                     Valeria%Caso%NULL%1,                     Charlotte%Cordonnier%NULL%1,                     Daniel%Strbian%NULL%2,                     Daniel%Strbian%NULL%0,                     George%Ntaios%NULL%1,                     Peter D%Schellinger%NULL%1,                     Else Charlotte%Sandset%NULL%1,                     NULL%NULL%NULL%0,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,                     Clare L.%Gillies%NULL%1,                     Francesco%Zaccardi%NULL%0,                     Briana%Coles%NULL%1,                     Melanie J.%Davies%NULL%1,                     Samuel%Seidu%NULL%1,                     Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,                     Manuela%Altieri%NULL%1,                     Alvino%Bisecco%NULL%1,                     Alessandro%d’Ambrosio%NULL%1,                     Renato%Docimo%NULL%1,                     Daniela%Buonanno%NULL%1,                     Federica%Matrone%NULL%1,                     Federica%Giuliano%NULL%1,                     Gioacchino%Tedeschi%NULL%1,                     Gabriella%Santangelo%NULL%1,                     Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,                     Hang%Li%NULL%1,                     David%Kung%NULL%1,                     Marc%Fisher%NULL%1,                     Ying%Shen%NULL%1,                     Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,                     Shawheen%Rezaei%NULL%2,                     Shawheen%Rezaei%NULL%0,                     Nicholas%Alakel%NULL%1,                     Brittany%Gazdag%NULL%1,                     Aditya Ravi%Kumar%NULL%1,                     Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,                     Jevto%Erakovic%NULL%1,                     Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,                     Marina%Malobabic%NULL%1,                     Vuk%Milosevic%NULL%1,                     Jelena%Stojanov%NULL%1,                     Slobodan%Vojinovic%NULL%1,                     Goran%Stanojevic%NULL%1,                     Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,                     Enrico%Di Stasio%NULL%1,                     Guido%Primiano%NULL%1,                     Delfina%Janiri%NULL%1,                     Marco%Luigetti%NULL%1,                     Giovanni%Frisullo%NULL%1,                     Catello%Vollono%NULL%1,                     Matteo%Lucchini%NULL%1,                     Valerio%Brunetti%NULL%1,                     Mauro%Monforte%NULL%1,                     Valeria%Guglielmi%NULL%1,                     Giacomo%Della Marca%NULL%1,                     Amelia%Evoli%NULL%1,                     Camillo%Marra%NULL%1,                     Massimiliano%Mirabella%NULL%1,                     Davide%Quaranta%NULL%1,                     Enzo%Ricci%NULL%1,                     Serenella%Servidei%NULL%1,                     Gabriella%Silvestri%NULL%1,                     Simone%Bellavia%NULL%1,                     Sara%Bortolani%NULL%1,                     Francesco%Bove%NULL%1,                     Riccardo%Di Iorio%NULL%1,                     Andrea%Di Paolantonio%NULL%1,                     Danilo%Genovese%NULL%1,                     Tamara%Ialongo%NULL%1,                     Maria Rita%Lo Monaco%NULL%1,                     Jessica%Marotta%NULL%1,                     Agata Katia%Patanella%NULL%1,                     Alessia%Perna%NULL%1,                     Martina%Petracca%NULL%1,                     Giorgia%Presicce%NULL%1,                     Vittorio%Riso%NULL%1,                     Eleonora%Rollo%NULL%1,                     Angela%Romano%NULL%1,                     Marina%Romozzi%NULL%1,                     Cristina%Sancricca%NULL%1,                     Irene%Scala%NULL%1,                     Gregorio%Spagni%NULL%1,                     Marcella%Solito%NULL%1,                     Luca%Tricoli%NULL%1,                     Paola%Zinzi%NULL%1,                     Paolo%Calabresi%NULL%1,                     Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Accogli%M.%coreGivesNoEmail%1,                   Barone%R.%coreGivesNoEmail%1,                   Capozzo%R.%coreGivesNoEmail%1,                   Logroscino%G.%coreGivesNoEmail%1,                   Musio%M.%coreGivesNoEmail%1,                   Zoccolella%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,                     Giuseppe%Battaglia%NULL%2,                     Giuseppe%Battaglia%NULL%0,                     Valerio%Giustino%NULL%1,                     Andrea%Gagliardo%NULL%1,                     Michele%D’Aleo%NULL%1,                     Ottavio%Giannini%NULL%1,                     Antonio%Palma%NULL%1,                     Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,                     Rubén%López-Bueno%rlopezbu@unizar.es%1,                     Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,                     Roksana%Zauder%NULL%1,                     Maria%Skalska%NULL%1,                     Joanna%Jastrzębska%NULL%1,                     Zbigniew%Jastrzębski%NULL%1,                     Felipe B%Schuch%NULL%1,                     Igor%Grabovac%NULL%1,                     Mark A%Tully%NULL%1,                     Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,                      H Bart%van der Worp%NULL%2,                      H Bart%van der Worp%NULL%0,                      Valeria%Caso%NULL%1,                      Charlotte%Cordonnier%NULL%1,                      Daniel%Strbian%NULL%2,                      Daniel%Strbian%NULL%0,                      George%Ntaios%NULL%1,                      Peter D%Schellinger%NULL%1,                      Else Charlotte%Sandset%NULL%1,                      NULL%NULL%NULL%0,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,                      Clare L.%Gillies%NULL%1,                      Francesco%Zaccardi%NULL%0,                      Briana%Coles%NULL%1,                      Melanie J.%Davies%NULL%1,                      Samuel%Seidu%NULL%1,                      Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,                      Manuela%Altieri%NULL%1,                      Alvino%Bisecco%NULL%1,                      Alessandro%d’Ambrosio%NULL%1,                      Renato%Docimo%NULL%1,                      Daniela%Buonanno%NULL%1,                      Federica%Matrone%NULL%1,                      Federica%Giuliano%NULL%1,                      Gioacchino%Tedeschi%NULL%1,                      Gabriella%Santangelo%NULL%1,                      Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,                      Hang%Li%NULL%1,                      David%Kung%NULL%1,                      Marc%Fisher%NULL%1,                      Ying%Shen%NULL%1,                      Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,                      Shawheen%Rezaei%NULL%2,                      Shawheen%Rezaei%NULL%0,                      Nicholas%Alakel%NULL%1,                      Brittany%Gazdag%NULL%1,                      Aditya Ravi%Kumar%NULL%1,                      Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,                      Jevto%Erakovic%NULL%1,                      Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,                      Marina%Malobabic%NULL%1,                      Vuk%Milosevic%NULL%1,                      Jelena%Stojanov%NULL%1,                      Slobodan%Vojinovic%NULL%1,                      Goran%Stanojevic%NULL%1,                      Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,                      Enrico%Di Stasio%NULL%1,                      Guido%Primiano%NULL%1,                      Delfina%Janiri%NULL%1,                      Marco%Luigetti%NULL%1,                      Giovanni%Frisullo%NULL%1,                      Catello%Vollono%NULL%1,                      Matteo%Lucchini%NULL%1,                      Valerio%Brunetti%NULL%1,                      Mauro%Monforte%NULL%1,                      Valeria%Guglielmi%NULL%1,                      Giacomo%Della Marca%NULL%1,                      Amelia%Evoli%NULL%1,                      Camillo%Marra%NULL%1,                      Massimiliano%Mirabella%NULL%1,                      Davide%Quaranta%NULL%1,                      Enzo%Ricci%NULL%1,                      Serenella%Servidei%NULL%1,                      Gabriella%Silvestri%NULL%1,                      Simone%Bellavia%NULL%1,                      Sara%Bortolani%NULL%1,                      Francesco%Bove%NULL%1,                      Riccardo%Di Iorio%NULL%1,                      Andrea%Di Paolantonio%NULL%1,                      Danilo%Genovese%NULL%1,                      Tamara%Ialongo%NULL%1,                      Maria Rita%Lo Monaco%NULL%1,                      Jessica%Marotta%NULL%1,                      Agata Katia%Patanella%NULL%1,                      Alessia%Perna%NULL%1,                      Martina%Petracca%NULL%1,                      Giorgia%Presicce%NULL%1,                      Vittorio%Riso%NULL%1,                      Eleonora%Rollo%NULL%1,                      Angela%Romano%NULL%1,                      Marina%Romozzi%NULL%1,                      Cristina%Sancricca%NULL%1,                      Irene%Scala%NULL%1,                      Gregorio%Spagni%NULL%1,                      Marcella%Solito%NULL%1,                      Luca%Tricoli%NULL%1,                      Paola%Zinzi%NULL%1,                      Paolo%Calabresi%NULL%1,                      Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Accogli%M.%coreGivesNoEmail%1,                    Barone%R.%coreGivesNoEmail%1,                    Capozzo%R.%coreGivesNoEmail%1,                    Logroscino%G.%coreGivesNoEmail%1,                    Musio%M.%coreGivesNoEmail%1,                    Zoccolella%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,                      Giuseppe%Battaglia%NULL%2,                      Giuseppe%Battaglia%NULL%0,                      Valerio%Giustino%NULL%1,                      Andrea%Gagliardo%NULL%1,                      Michele%D’Aleo%NULL%1,                      Ottavio%Giannini%NULL%1,                      Antonio%Palma%NULL%1,                      Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,                      Rubén%López-Bueno%rlopezbu@unizar.es%1,                      Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,                      Roksana%Zauder%NULL%1,                      Maria%Skalska%NULL%1,                      Joanna%Jastrzębska%NULL%1,                      Zbigniew%Jastrzębski%NULL%1,                      Felipe B%Schuch%NULL%1,                      Igor%Grabovac%NULL%1,                      Mark A%Tully%NULL%1,                      Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,                       H Bart%van der Worp%NULL%2,                       H Bart%van der Worp%NULL%0,                       Valeria%Caso%NULL%1,                       Charlotte%Cordonnier%NULL%1,                       Daniel%Strbian%NULL%2,                       Daniel%Strbian%NULL%0,                       George%Ntaios%NULL%1,                       Peter D%Schellinger%NULL%1,                       Else Charlotte%Sandset%NULL%1,                       NULL%NULL%NULL%0,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,                       Clare L.%Gillies%NULL%1,                       Francesco%Zaccardi%NULL%0,                       Briana%Coles%NULL%1,                       Melanie J.%Davies%NULL%1,                       Samuel%Seidu%NULL%1,                       Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,                       Manuela%Altieri%NULL%1,                       Alvino%Bisecco%NULL%1,                       Alessandro%d’Ambrosio%NULL%1,                       Renato%Docimo%NULL%1,                       Daniela%Buonanno%NULL%1,                       Federica%Matrone%NULL%1,                       Federica%Giuliano%NULL%1,                       Gioacchino%Tedeschi%NULL%1,                       Gabriella%Santangelo%NULL%1,                       Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,                       Hang%Li%NULL%1,                       David%Kung%NULL%1,                       Marc%Fisher%NULL%1,                       Ying%Shen%NULL%1,                       Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,                       Shawheen%Rezaei%NULL%2,                       Shawheen%Rezaei%NULL%0,                       Nicholas%Alakel%NULL%1,                       Brittany%Gazdag%NULL%1,                       Aditya Ravi%Kumar%NULL%1,                       Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,                       Jevto%Erakovic%NULL%1,                       Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,                       Marina%Malobabic%NULL%1,                       Vuk%Milosevic%NULL%1,                       Jelena%Stojanov%NULL%1,                       Slobodan%Vojinovic%NULL%1,                       Goran%Stanojevic%NULL%1,                       Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,                       Enrico%Di Stasio%NULL%1,                       Guido%Primiano%NULL%1,                       Delfina%Janiri%NULL%1,                       Marco%Luigetti%NULL%1,                       Giovanni%Frisullo%NULL%1,                       Catello%Vollono%NULL%1,                       Matteo%Lucchini%NULL%1,                       Valerio%Brunetti%NULL%1,                       Mauro%Monforte%NULL%1,                       Valeria%Guglielmi%NULL%1,                       Giacomo%Della Marca%NULL%1,                       Amelia%Evoli%NULL%1,                       Camillo%Marra%NULL%1,                       Massimiliano%Mirabella%NULL%1,                       Davide%Quaranta%NULL%1,                       Enzo%Ricci%NULL%1,                       Serenella%Servidei%NULL%1,                       Gabriella%Silvestri%NULL%1,                       Simone%Bellavia%NULL%1,                       Sara%Bortolani%NULL%1,                       Francesco%Bove%NULL%1,                       Riccardo%Di Iorio%NULL%1,                       Andrea%Di Paolantonio%NULL%1,                       Danilo%Genovese%NULL%1,                       Tamara%Ialongo%NULL%1,                       Maria Rita%Lo Monaco%NULL%1,                       Jessica%Marotta%NULL%1,                       Agata Katia%Patanella%NULL%1,                       Alessia%Perna%NULL%1,                       Martina%Petracca%NULL%1,                       Giorgia%Presicce%NULL%1,                       Vittorio%Riso%NULL%1,                       Eleonora%Rollo%NULL%1,                       Angela%Romano%NULL%1,                       Marina%Romozzi%NULL%1,                       Cristina%Sancricca%NULL%1,                       Irene%Scala%NULL%1,                       Gregorio%Spagni%NULL%1,                       Marcella%Solito%NULL%1,                       Luca%Tricoli%NULL%1,                       Paola%Zinzi%NULL%1,                       Paolo%Calabresi%NULL%1,                       Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Accogli%M.%coreGivesNoEmail%1,                     Barone%R.%coreGivesNoEmail%1,                     Capozzo%R.%coreGivesNoEmail%1,                     Logroscino%G.%coreGivesNoEmail%1,                     Musio%M.%coreGivesNoEmail%1,                     Zoccolella%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,                       Giuseppe%Battaglia%NULL%2,                       Giuseppe%Battaglia%NULL%0,                       Valerio%Giustino%NULL%1,                       Andrea%Gagliardo%NULL%1,                       Michele%D’Aleo%NULL%1,                       Ottavio%Giannini%NULL%1,                       Antonio%Palma%NULL%1,                       Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,                       Rubén%López-Bueno%rlopezbu@unizar.es%1,                       Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,                       Roksana%Zauder%NULL%1,                       Maria%Skalska%NULL%1,                       Joanna%Jastrzębska%NULL%1,                       Zbigniew%Jastrzębski%NULL%1,                       Felipe B%Schuch%NULL%1,                       Igor%Grabovac%NULL%1,                       Mark A%Tully%NULL%1,                       Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,                        H Bart%van der Worp%NULL%2,                        H Bart%van der Worp%NULL%0,                        Valeria%Caso%NULL%1,                        Charlotte%Cordonnier%NULL%1,                        Daniel%Strbian%NULL%2,                        Daniel%Strbian%NULL%0,                        George%Ntaios%NULL%1,                        Peter D%Schellinger%NULL%1,                        Else Charlotte%Sandset%NULL%1,                        NULL%NULL%NULL%0,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,                        Clare L.%Gillies%NULL%1,                        Francesco%Zaccardi%NULL%0,                        Briana%Coles%NULL%1,                        Melanie J.%Davies%NULL%1,                        Samuel%Seidu%NULL%1,                        Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,                        Manuela%Altieri%NULL%1,                        Alvino%Bisecco%NULL%1,                        Alessandro%d’Ambrosio%NULL%1,                        Renato%Docimo%NULL%1,                        Daniela%Buonanno%NULL%1,                        Federica%Matrone%NULL%1,                        Federica%Giuliano%NULL%1,                        Gioacchino%Tedeschi%NULL%1,                        Gabriella%Santangelo%NULL%1,                        Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,                        Hang%Li%NULL%1,                        David%Kung%NULL%1,                        Marc%Fisher%NULL%1,                        Ying%Shen%NULL%1,                        Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,                        Shawheen%Rezaei%NULL%2,                        Shawheen%Rezaei%NULL%0,                        Nicholas%Alakel%NULL%1,                        Brittany%Gazdag%NULL%1,                        Aditya Ravi%Kumar%NULL%1,                        Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,                        Jevto%Erakovic%NULL%1,                        Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,                        Marina%Malobabic%NULL%1,                        Vuk%Milosevic%NULL%1,                        Jelena%Stojanov%NULL%1,                        Slobodan%Vojinovic%NULL%1,                        Goran%Stanojevic%NULL%1,                        Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,                        Enrico%Di Stasio%NULL%1,                        Guido%Primiano%NULL%1,                        Delfina%Janiri%NULL%1,                        Marco%Luigetti%NULL%1,                        Giovanni%Frisullo%NULL%1,                        Catello%Vollono%NULL%1,                        Matteo%Lucchini%NULL%1,                        Valerio%Brunetti%NULL%1,                        Mauro%Monforte%NULL%1,                        Valeria%Guglielmi%NULL%1,                        Giacomo%Della Marca%NULL%1,                        Amelia%Evoli%NULL%1,                        Camillo%Marra%NULL%1,                        Massimiliano%Mirabella%NULL%1,                        Davide%Quaranta%NULL%1,                        Enzo%Ricci%NULL%1,                        Serenella%Servidei%NULL%1,                        Gabriella%Silvestri%NULL%1,                        Simone%Bellavia%NULL%1,                        Sara%Bortolani%NULL%1,                        Francesco%Bove%NULL%1,                        Riccardo%Di Iorio%NULL%1,                        Andrea%Di Paolantonio%NULL%1,                        Danilo%Genovese%NULL%1,                        Tamara%Ialongo%NULL%1,                        Maria Rita%Lo Monaco%NULL%1,                        Jessica%Marotta%NULL%1,                        Agata Katia%Patanella%NULL%1,                        Alessia%Perna%NULL%1,                        Martina%Petracca%NULL%1,                        Giorgia%Presicce%NULL%1,                        Vittorio%Riso%NULL%1,                        Eleonora%Rollo%NULL%1,                        Angela%Romano%NULL%1,                        Marina%Romozzi%NULL%1,                        Cristina%Sancricca%NULL%1,                        Irene%Scala%NULL%1,                        Gregorio%Spagni%NULL%1,                        Marcella%Solito%NULL%1,                        Luca%Tricoli%NULL%1,                        Paola%Zinzi%NULL%1,                        Paolo%Calabresi%NULL%1,                        Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Accogli%M.%coreGivesNoEmail%1,                      Barone%R.%coreGivesNoEmail%1,                      Capozzo%R.%coreGivesNoEmail%1,                      Logroscino%G.%coreGivesNoEmail%1,                      Musio%M.%coreGivesNoEmail%1,                      Zoccolella%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,                        Giuseppe%Battaglia%NULL%2,                        Giuseppe%Battaglia%NULL%0,                        Valerio%Giustino%NULL%1,                        Andrea%Gagliardo%NULL%1,                        Michele%D’Aleo%NULL%1,                        Ottavio%Giannini%NULL%1,                        Antonio%Palma%NULL%1,                        Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,                        Rubén%López-Bueno%rlopezbu@unizar.es%1,                        Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,                        Roksana%Zauder%NULL%1,                        Maria%Skalska%NULL%1,                        Joanna%Jastrzębska%NULL%1,                        Zbigniew%Jastrzębski%NULL%1,                        Felipe B%Schuch%NULL%1,                        Igor%Grabovac%NULL%1,                        Mark A%Tully%NULL%1,                        Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,                         H Bart%van der Worp%NULL%2,                         H Bart%van der Worp%NULL%0,                         Valeria%Caso%NULL%1,                         Charlotte%Cordonnier%NULL%1,                         Daniel%Strbian%NULL%2,                         Daniel%Strbian%NULL%0,                         George%Ntaios%NULL%1,                         Peter D%Schellinger%NULL%1,                         Else Charlotte%Sandset%NULL%1,                         NULL%NULL%NULL%0,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,                         Clare L.%Gillies%NULL%1,                         Francesco%Zaccardi%NULL%0,                         Briana%Coles%NULL%1,                         Melanie J.%Davies%NULL%1,                         Samuel%Seidu%NULL%1,                         Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,                         Manuela%Altieri%NULL%1,                         Alvino%Bisecco%NULL%1,                         Alessandro%d’Ambrosio%NULL%1,                         Renato%Docimo%NULL%1,                         Daniela%Buonanno%NULL%1,                         Federica%Matrone%NULL%1,                         Federica%Giuliano%NULL%1,                         Gioacchino%Tedeschi%NULL%1,                         Gabriella%Santangelo%NULL%1,                         Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,                         Hang%Li%NULL%1,                         David%Kung%NULL%1,                         Marc%Fisher%NULL%1,                         Ying%Shen%NULL%1,                         Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,                         Shawheen%Rezaei%NULL%2,                         Shawheen%Rezaei%NULL%0,                         Nicholas%Alakel%NULL%1,                         Brittany%Gazdag%NULL%1,                         Aditya Ravi%Kumar%NULL%1,                         Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,                         Jevto%Erakovic%NULL%1,                         Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,                         Marina%Malobabic%NULL%1,                         Vuk%Milosevic%NULL%1,                         Jelena%Stojanov%NULL%1,                         Slobodan%Vojinovic%NULL%1,                         Goran%Stanojevic%NULL%1,                         Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,                         Enrico%Di Stasio%NULL%1,                         Guido%Primiano%NULL%1,                         Delfina%Janiri%NULL%1,                         Marco%Luigetti%NULL%1,                         Giovanni%Frisullo%NULL%1,                         Catello%Vollono%NULL%1,                         Matteo%Lucchini%NULL%1,                         Valerio%Brunetti%NULL%1,                         Mauro%Monforte%NULL%1,                         Valeria%Guglielmi%NULL%1,                         Giacomo%Della Marca%NULL%1,                         Amelia%Evoli%NULL%1,                         Camillo%Marra%NULL%1,                         Massimiliano%Mirabella%NULL%1,                         Davide%Quaranta%NULL%1,                         Enzo%Ricci%NULL%1,                         Serenella%Servidei%NULL%1,                         Gabriella%Silvestri%NULL%1,                         Simone%Bellavia%NULL%1,                         Sara%Bortolani%NULL%1,                         Francesco%Bove%NULL%1,                         Riccardo%Di Iorio%NULL%1,                         Andrea%Di Paolantonio%NULL%1,                         Danilo%Genovese%NULL%1,                         Tamara%Ialongo%NULL%1,                         Maria Rita%Lo Monaco%NULL%1,                         Jessica%Marotta%NULL%1,                         Agata Katia%Patanella%NULL%1,                         Alessia%Perna%NULL%1,                         Martina%Petracca%NULL%1,                         Giorgia%Presicce%NULL%1,                         Vittorio%Riso%NULL%1,                         Eleonora%Rollo%NULL%1,                         Angela%Romano%NULL%1,                         Marina%Romozzi%NULL%1,                         Cristina%Sancricca%NULL%1,                         Irene%Scala%NULL%1,                         Gregorio%Spagni%NULL%1,                         Marcella%Solito%NULL%1,                         Luca%Tricoli%NULL%1,                         Paola%Zinzi%NULL%1,                         Paolo%Calabresi%NULL%1,                         Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Accogli%M.%coreGivesNoEmail%1,                       Barone%R.%coreGivesNoEmail%1,                       Capozzo%R.%coreGivesNoEmail%1,                       Logroscino%G.%coreGivesNoEmail%1,                       Musio%M.%coreGivesNoEmail%1,                       Zoccolella%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,                         Giuseppe%Battaglia%NULL%2,                         Giuseppe%Battaglia%NULL%0,                         Valerio%Giustino%NULL%1,                         Andrea%Gagliardo%NULL%1,                         Michele%D’Aleo%NULL%1,                         Ottavio%Giannini%NULL%1,                         Antonio%Palma%NULL%1,                         Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,                         Rubén%López-Bueno%rlopezbu@unizar.es%1,                         Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,                         Roksana%Zauder%NULL%1,                         Maria%Skalska%NULL%1,                         Joanna%Jastrzębska%NULL%1,                         Zbigniew%Jastrzębski%NULL%1,                         Felipe B%Schuch%NULL%1,                         Igor%Grabovac%NULL%1,                         Mark A%Tully%NULL%1,                         Lee%Smith%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1484,6 +1652,9 @@
       <c r="I1" t="s">
         <v>101</v>
       </c>
+      <c r="J1" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1499,7 +1670,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>289</v>
+        <v>345</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1512,6 +1683,9 @@
       </c>
       <c r="I2" t="s">
         <v>275</v>
+      </c>
+      <c r="J2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="3">
@@ -1528,7 +1702,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>290</v>
+        <v>346</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1541,6 +1715,9 @@
       </c>
       <c r="I3" t="s">
         <v>277</v>
+      </c>
+      <c r="J3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4">
@@ -1557,7 +1734,7 @@
         <v>196</v>
       </c>
       <c r="E4" t="s">
-        <v>291</v>
+        <v>347</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1570,6 +1747,9 @@
       </c>
       <c r="I4" t="s">
         <v>279</v>
+      </c>
+      <c r="J4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="5">
@@ -1586,7 +1766,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>292</v>
+        <v>348</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1599,6 +1779,9 @@
       </c>
       <c r="I5" t="s">
         <v>275</v>
+      </c>
+      <c r="J5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="6">
@@ -1615,7 +1798,7 @@
         <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>293</v>
+        <v>349</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1628,6 +1811,9 @@
       </c>
       <c r="I6" t="s">
         <v>279</v>
+      </c>
+      <c r="J6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="7">
@@ -1644,7 +1830,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>294</v>
+        <v>350</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1657,6 +1843,9 @@
       </c>
       <c r="I7" t="s">
         <v>277</v>
+      </c>
+      <c r="J7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="8">
@@ -1673,7 +1862,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1686,6 +1875,9 @@
       </c>
       <c r="I8" t="s">
         <v>277</v>
+      </c>
+      <c r="J8" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="9">
@@ -1702,7 +1894,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>296</v>
+        <v>352</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1715,6 +1907,9 @@
       </c>
       <c r="I9" t="s">
         <v>275</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10">
@@ -1731,7 +1926,7 @@
         <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>297</v>
+        <v>353</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1744,6 +1939,9 @@
       </c>
       <c r="I10" t="s">
         <v>286</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -1760,7 +1958,7 @@
         <v>205</v>
       </c>
       <c r="E11" t="s">
-        <v>298</v>
+        <v>354</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1773,6 +1971,9 @@
       </c>
       <c r="I11" t="s">
         <v>279</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="12">
@@ -1789,7 +1990,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>299</v>
+        <v>355</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1802,6 +2003,9 @@
       </c>
       <c r="I12" t="s">
         <v>275</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/108.xlsx
+++ b/Covid_19_Dataset_and_References/References/108.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="378">
   <si>
     <t>Doi</t>
   </si>
@@ -1268,6 +1268,72 @@
   </si>
   <si>
     <t>[Guillermo F%López-Sánchez%gfls@um.es%1,                         Rubén%López-Bueno%rlopezbu@unizar.es%1,                         Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,                         Roksana%Zauder%NULL%1,                         Maria%Skalska%NULL%1,                         Joanna%Jastrzębska%NULL%1,                         Zbigniew%Jastrzębski%NULL%1,                         Felipe B%Schuch%NULL%1,                         Igor%Grabovac%NULL%1,                         Mark A%Tully%NULL%1,                         Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,                          H Bart%van der Worp%NULL%2,                          H Bart%van der Worp%NULL%0,                          Valeria%Caso%NULL%1,                          Charlotte%Cordonnier%NULL%1,                          Daniel%Strbian%NULL%2,                          Daniel%Strbian%NULL%0,                          George%Ntaios%NULL%1,                          Peter D%Schellinger%NULL%1,                          Else Charlotte%Sandset%NULL%1,                          NULL%NULL%NULL%0,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,                          Clare L.%Gillies%NULL%1,                          Francesco%Zaccardi%NULL%0,                          Briana%Coles%NULL%1,                          Melanie J.%Davies%NULL%1,                          Samuel%Seidu%NULL%1,                          Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,                          Manuela%Altieri%NULL%1,                          Alvino%Bisecco%NULL%1,                          Alessandro%d’Ambrosio%NULL%1,                          Renato%Docimo%NULL%1,                          Daniela%Buonanno%NULL%1,                          Federica%Matrone%NULL%1,                          Federica%Giuliano%NULL%1,                          Gioacchino%Tedeschi%NULL%1,                          Gabriella%Santangelo%NULL%1,                          Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,                          Hang%Li%NULL%1,                          David%Kung%NULL%1,                          Marc%Fisher%NULL%1,                          Ying%Shen%NULL%1,                          Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,                          Shawheen%Rezaei%NULL%2,                          Shawheen%Rezaei%NULL%0,                          Nicholas%Alakel%NULL%1,                          Brittany%Gazdag%NULL%1,                          Aditya Ravi%Kumar%NULL%1,                          Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,                          Jevto%Erakovic%NULL%1,                          Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,                          Marina%Malobabic%NULL%1,                          Vuk%Milosevic%NULL%1,                          Jelena%Stojanov%NULL%1,                          Slobodan%Vojinovic%NULL%1,                          Goran%Stanojevic%NULL%1,                          Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,                          Enrico%Di Stasio%NULL%1,                          Guido%Primiano%NULL%1,                          Delfina%Janiri%NULL%1,                          Marco%Luigetti%NULL%1,                          Giovanni%Frisullo%NULL%1,                          Catello%Vollono%NULL%1,                          Matteo%Lucchini%NULL%1,                          Valerio%Brunetti%NULL%1,                          Mauro%Monforte%NULL%1,                          Valeria%Guglielmi%NULL%1,                          Giacomo%Della Marca%NULL%1,                          Amelia%Evoli%NULL%1,                          Camillo%Marra%NULL%1,                          Massimiliano%Mirabella%NULL%1,                          Davide%Quaranta%NULL%1,                          Enzo%Ricci%NULL%1,                          Serenella%Servidei%NULL%1,                          Gabriella%Silvestri%NULL%1,                          Simone%Bellavia%NULL%1,                          Sara%Bortolani%NULL%1,                          Francesco%Bove%NULL%1,                          Riccardo%Di Iorio%NULL%1,                          Andrea%Di Paolantonio%NULL%1,                          Danilo%Genovese%NULL%1,                          Tamara%Ialongo%NULL%1,                          Maria Rita%Lo Monaco%NULL%1,                          Jessica%Marotta%NULL%1,                          Agata Katia%Patanella%NULL%1,                          Alessia%Perna%NULL%1,                          Martina%Petracca%NULL%1,                          Giorgia%Presicce%NULL%1,                          Vittorio%Riso%NULL%1,                          Eleonora%Rollo%NULL%1,                          Angela%Romano%NULL%1,                          Marina%Romozzi%NULL%1,                          Cristina%Sancricca%NULL%1,                          Irene%Scala%NULL%1,                          Gregorio%Spagni%NULL%1,                          Marcella%Solito%NULL%1,                          Luca%Tricoli%NULL%1,                          Paola%Zinzi%NULL%1,                          Paolo%Calabresi%NULL%1,                          Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Accogli%M.%coreGivesNoEmail%1,                        Barone%R.%coreGivesNoEmail%1,                        Capozzo%R.%coreGivesNoEmail%1,                        Logroscino%G.%coreGivesNoEmail%1,                        Musio%M.%coreGivesNoEmail%1,                        Zoccolella%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,                          Giuseppe%Battaglia%NULL%2,                          Giuseppe%Battaglia%NULL%0,                          Valerio%Giustino%NULL%1,                          Andrea%Gagliardo%NULL%1,                          Michele%D’Aleo%NULL%1,                          Ottavio%Giannini%NULL%1,                          Antonio%Palma%NULL%1,                          Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,                          Rubén%López-Bueno%rlopezbu@unizar.es%1,                          Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,                          Roksana%Zauder%NULL%1,                          Maria%Skalska%NULL%1,                          Joanna%Jastrzębska%NULL%1,                          Zbigniew%Jastrzębski%NULL%1,                          Felipe B%Schuch%NULL%1,                          Igor%Grabovac%NULL%1,                          Mark A%Tully%NULL%1,                          Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,                           H Bart%van der Worp%NULL%2,                           H Bart%van der Worp%NULL%0,                           Valeria%Caso%NULL%1,                           Charlotte%Cordonnier%NULL%1,                           Daniel%Strbian%NULL%2,                           Daniel%Strbian%NULL%0,                           George%Ntaios%NULL%1,                           Peter D%Schellinger%NULL%1,                           Else Charlotte%Sandset%NULL%1,                           NULL%NULL%NULL%0,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,                           Clare L.%Gillies%NULL%1,                           Francesco%Zaccardi%NULL%0,                           Briana%Coles%NULL%1,                           Melanie J.%Davies%NULL%1,                           Samuel%Seidu%NULL%1,                           Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,                           Manuela%Altieri%NULL%1,                           Alvino%Bisecco%NULL%1,                           Alessandro%d’Ambrosio%NULL%1,                           Renato%Docimo%NULL%1,                           Daniela%Buonanno%NULL%1,                           Federica%Matrone%NULL%1,                           Federica%Giuliano%NULL%1,                           Gioacchino%Tedeschi%NULL%1,                           Gabriella%Santangelo%NULL%1,                           Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,                           Hang%Li%NULL%1,                           David%Kung%NULL%1,                           Marc%Fisher%NULL%1,                           Ying%Shen%NULL%1,                           Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,                           Shawheen%Rezaei%NULL%2,                           Shawheen%Rezaei%NULL%0,                           Nicholas%Alakel%NULL%1,                           Brittany%Gazdag%NULL%1,                           Aditya Ravi%Kumar%NULL%1,                           Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,                           Jevto%Erakovic%NULL%1,                           Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,                           Marina%Malobabic%NULL%1,                           Vuk%Milosevic%NULL%1,                           Jelena%Stojanov%NULL%1,                           Slobodan%Vojinovic%NULL%1,                           Goran%Stanojevic%NULL%1,                           Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,                           Enrico%Di Stasio%NULL%1,                           Guido%Primiano%NULL%1,                           Delfina%Janiri%NULL%1,                           Marco%Luigetti%NULL%1,                           Giovanni%Frisullo%NULL%1,                           Catello%Vollono%NULL%1,                           Matteo%Lucchini%NULL%1,                           Valerio%Brunetti%NULL%1,                           Mauro%Monforte%NULL%1,                           Valeria%Guglielmi%NULL%1,                           Giacomo%Della Marca%NULL%1,                           Amelia%Evoli%NULL%1,                           Camillo%Marra%NULL%1,                           Massimiliano%Mirabella%NULL%1,                           Davide%Quaranta%NULL%1,                           Enzo%Ricci%NULL%1,                           Serenella%Servidei%NULL%1,                           Gabriella%Silvestri%NULL%1,                           Simone%Bellavia%NULL%1,                           Sara%Bortolani%NULL%1,                           Francesco%Bove%NULL%1,                           Riccardo%Di Iorio%NULL%1,                           Andrea%Di Paolantonio%NULL%1,                           Danilo%Genovese%NULL%1,                           Tamara%Ialongo%NULL%1,                           Maria Rita%Lo Monaco%NULL%1,                           Jessica%Marotta%NULL%1,                           Agata Katia%Patanella%NULL%1,                           Alessia%Perna%NULL%1,                           Martina%Petracca%NULL%1,                           Giorgia%Presicce%NULL%1,                           Vittorio%Riso%NULL%1,                           Eleonora%Rollo%NULL%1,                           Angela%Romano%NULL%1,                           Marina%Romozzi%NULL%1,                           Cristina%Sancricca%NULL%1,                           Irene%Scala%NULL%1,                           Gregorio%Spagni%NULL%1,                           Marcella%Solito%NULL%1,                           Luca%Tricoli%NULL%1,                           Paola%Zinzi%NULL%1,                           Paolo%Calabresi%NULL%1,                           Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Accogli%M.%coreGivesNoEmail%1,                         Barone%R.%coreGivesNoEmail%1,                         Capozzo%R.%coreGivesNoEmail%1,                         Logroscino%G.%coreGivesNoEmail%1,                         Musio%M.%coreGivesNoEmail%1,                         Zoccolella%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,                           Giuseppe%Battaglia%NULL%2,                           Giuseppe%Battaglia%NULL%0,                           Valerio%Giustino%NULL%1,                           Andrea%Gagliardo%NULL%1,                           Michele%D’Aleo%NULL%1,                           Ottavio%Giannini%NULL%1,                           Antonio%Palma%NULL%1,                           Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,                           Rubén%López-Bueno%rlopezbu@unizar.es%1,                           Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,                           Roksana%Zauder%NULL%1,                           Maria%Skalska%NULL%1,                           Joanna%Jastrzębska%NULL%1,                           Zbigniew%Jastrzębski%NULL%1,                           Felipe B%Schuch%NULL%1,                           Igor%Grabovac%NULL%1,                           Mark A%Tully%NULL%1,                           Lee%Smith%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1736,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1702,7 +1768,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1734,7 +1800,7 @@
         <v>196</v>
       </c>
       <c r="E4" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1766,7 +1832,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1798,7 +1864,7 @@
         <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1830,7 +1896,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1862,7 +1928,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1894,7 +1960,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1926,7 +1992,7 @@
         <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1958,7 +2024,7 @@
         <v>205</v>
       </c>
       <c r="E11" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1990,7 +2056,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
